--- a/Global_M2/M2_USD_Tables/Long28_M2_USD.xlsx
+++ b/Global_M2/M2_USD_Tables/Long28_M2_USD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG499"/>
+  <dimension ref="A1:BG500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73689,10 +73689,10 @@
         <v>44075</v>
       </c>
       <c r="B458" t="n">
-        <v>97816517956048.91</v>
+        <v>97815917956048.91</v>
       </c>
       <c r="C458" t="n">
-        <v>97816517956048.91</v>
+        <v>97815917956048.91</v>
       </c>
       <c r="D458" t="n">
         <v>31868361140972.21</v>
@@ -73701,10 +73701,10 @@
         <v>31868361140972.21</v>
       </c>
       <c r="F458" t="n">
-        <v>18592000000000</v>
+        <v>18591400000000</v>
       </c>
       <c r="G458" t="n">
-        <v>18592000000000</v>
+        <v>18591400000000</v>
       </c>
       <c r="H458" t="n">
         <v>15774101965150</v>
@@ -73868,10 +73868,10 @@
         <v>44105</v>
       </c>
       <c r="B459" t="n">
-        <v>98622652743579.27</v>
+        <v>98619252743579.27</v>
       </c>
       <c r="C459" t="n">
-        <v>98622652743579.27</v>
+        <v>98619252743579.27</v>
       </c>
       <c r="D459" t="n">
         <v>32124215843034.12</v>
@@ -73880,10 +73880,10 @@
         <v>32124215843034.12</v>
       </c>
       <c r="F459" t="n">
-        <v>18746900000000</v>
+        <v>18743500000000</v>
       </c>
       <c r="G459" t="n">
-        <v>18746900000000</v>
+        <v>18743500000000</v>
       </c>
       <c r="H459" t="n">
         <v>15771504732500</v>
@@ -74047,10 +74047,10 @@
         <v>44136</v>
       </c>
       <c r="B460" t="n">
-        <v>100876796742649</v>
+        <v>100870296742649</v>
       </c>
       <c r="C460" t="n">
-        <v>100876796742649</v>
+        <v>100870296742649</v>
       </c>
       <c r="D460" t="n">
         <v>33029236618004.87</v>
@@ -74059,10 +74059,10 @@
         <v>33029236618004.87</v>
       </c>
       <c r="F460" t="n">
-        <v>18965800000000</v>
+        <v>18959300000000</v>
       </c>
       <c r="G460" t="n">
-        <v>18965800000000</v>
+        <v>18959300000000</v>
       </c>
       <c r="H460" t="n">
         <v>16257904398720</v>
@@ -74226,10 +74226,10 @@
         <v>44166</v>
       </c>
       <c r="B461" t="n">
-        <v>102859911429753.6</v>
+        <v>102850311429753.6</v>
       </c>
       <c r="C461" t="n">
-        <v>102859911429753.6</v>
+        <v>102850311429753.6</v>
       </c>
       <c r="D461" t="n">
         <v>33514113409961.68</v>
@@ -74238,10 +74238,10 @@
         <v>33514113409961.68</v>
       </c>
       <c r="F461" t="n">
-        <v>19107100000000</v>
+        <v>19097500000000</v>
       </c>
       <c r="G461" t="n">
-        <v>19107100000000</v>
+        <v>19097500000000</v>
       </c>
       <c r="H461" t="n">
         <v>16792010277210</v>
@@ -74405,10 +74405,10 @@
         <v>44197</v>
       </c>
       <c r="B462" t="n">
-        <v>103948053088702.7</v>
+        <v>103935953088702.7</v>
       </c>
       <c r="C462" t="n">
-        <v>103948053088702.7</v>
+        <v>103935953088702.7</v>
       </c>
       <c r="D462" t="n">
         <v>34444315953307.39</v>
@@ -74417,10 +74417,10 @@
         <v>34444315953307.39</v>
       </c>
       <c r="F462" t="n">
-        <v>19335600000000</v>
+        <v>19323500000000</v>
       </c>
       <c r="G462" t="n">
-        <v>19335600000000</v>
+        <v>19323500000000</v>
       </c>
       <c r="H462" t="n">
         <v>16794671775950</v>
@@ -74584,10 +74584,10 @@
         <v>44228</v>
       </c>
       <c r="B463" t="n">
-        <v>104130323144698.9</v>
+        <v>104115423144698.9</v>
       </c>
       <c r="C463" t="n">
-        <v>104130323144698.9</v>
+        <v>104115423144698.9</v>
       </c>
       <c r="D463" t="n">
         <v>34543956434419.9</v>
@@ -74596,10 +74596,10 @@
         <v>34543956434419.9</v>
       </c>
       <c r="F463" t="n">
-        <v>19575800000000</v>
+        <v>19560900000000</v>
       </c>
       <c r="G463" t="n">
-        <v>19575800000000</v>
+        <v>19560900000000</v>
       </c>
       <c r="H463" t="n">
         <v>16805508367140</v>
@@ -74763,10 +74763,10 @@
         <v>44256</v>
       </c>
       <c r="B464" t="n">
-        <v>103796930576283.4</v>
+        <v>103778630576283.4</v>
       </c>
       <c r="C464" t="n">
-        <v>103796930576283.4</v>
+        <v>103778630576283.4</v>
       </c>
       <c r="D464" t="n">
         <v>34741758996428.9</v>
@@ -74775,10 +74775,10 @@
         <v>34741758996428.9</v>
       </c>
       <c r="F464" t="n">
-        <v>19818500000000</v>
+        <v>19800200000000</v>
       </c>
       <c r="G464" t="n">
-        <v>19818500000000</v>
+        <v>19800200000000</v>
       </c>
       <c r="H464" t="n">
         <v>16426135548550</v>
@@ -74942,10 +74942,10 @@
         <v>44287</v>
       </c>
       <c r="B465" t="n">
-        <v>105459524515722.3</v>
+        <v>105441724515722.3</v>
       </c>
       <c r="C465" t="n">
-        <v>105459524515722.3</v>
+        <v>105441724515722.3</v>
       </c>
       <c r="D465" t="n">
         <v>34946811370307.43</v>
@@ -74954,10 +74954,10 @@
         <v>34946811370307.43</v>
       </c>
       <c r="F465" t="n">
-        <v>20143400000000</v>
+        <v>20125600000000</v>
       </c>
       <c r="G465" t="n">
-        <v>20143400000000</v>
+        <v>20125600000000</v>
       </c>
       <c r="H465" t="n">
         <v>16896465450420</v>
@@ -75121,10 +75121,10 @@
         <v>44317</v>
       </c>
       <c r="B466" t="n">
-        <v>107405725125348.9</v>
+        <v>107385525125348.9</v>
       </c>
       <c r="C466" t="n">
-        <v>107405725125348.9</v>
+        <v>107385525125348.9</v>
       </c>
       <c r="D466" t="n">
         <v>35722733124018.84</v>
@@ -75133,10 +75133,10 @@
         <v>35722733124018.84</v>
       </c>
       <c r="F466" t="n">
-        <v>20450100000000</v>
+        <v>20429900000000</v>
       </c>
       <c r="G466" t="n">
-        <v>20450100000000</v>
+        <v>20429900000000</v>
       </c>
       <c r="H466" t="n">
         <v>17283783736160</v>
@@ -75300,10 +75300,10 @@
         <v>44348</v>
       </c>
       <c r="B467" t="n">
-        <v>106866573018123.5</v>
+        <v>106845873018123.5</v>
       </c>
       <c r="C467" t="n">
-        <v>106866573018123.5</v>
+        <v>106845873018123.5</v>
       </c>
       <c r="D467" t="n">
         <v>35897971068364.16</v>
@@ -75312,10 +75312,10 @@
         <v>35897971068364.16</v>
       </c>
       <c r="F467" t="n">
-        <v>20494100000000</v>
+        <v>20473400000000</v>
       </c>
       <c r="G467" t="n">
-        <v>20494100000000</v>
+        <v>20473400000000</v>
       </c>
       <c r="H467" t="n">
         <v>16880601361440</v>
@@ -75479,10 +75479,10 @@
         <v>44378</v>
       </c>
       <c r="B468" t="n">
-        <v>106925780976383</v>
+        <v>106932280976383</v>
       </c>
       <c r="C468" t="n">
-        <v>106925780976383</v>
+        <v>106932280976383</v>
       </c>
       <c r="D468" t="n">
         <v>35632091504279.59</v>
@@ -75491,10 +75491,10 @@
         <v>35632091504279.59</v>
       </c>
       <c r="F468" t="n">
-        <v>20618800000000</v>
+        <v>20625300000000</v>
       </c>
       <c r="G468" t="n">
-        <v>20618800000000</v>
+        <v>20625300000000</v>
       </c>
       <c r="H468" t="n">
         <v>17006180304780</v>
@@ -75658,10 +75658,10 @@
         <v>44409</v>
       </c>
       <c r="B469" t="n">
-        <v>107355012209206.1</v>
+        <v>107360912209206.1</v>
       </c>
       <c r="C469" t="n">
-        <v>107355012209206.1</v>
+        <v>107360912209206.1</v>
       </c>
       <c r="D469" t="n">
         <v>35790293471194.62</v>
@@ -75670,10 +75670,10 @@
         <v>35790293471194.62</v>
       </c>
       <c r="F469" t="n">
-        <v>20830100000000</v>
+        <v>20836000000000</v>
       </c>
       <c r="G469" t="n">
-        <v>20830100000000</v>
+        <v>20836000000000</v>
       </c>
       <c r="H469" t="n">
         <v>17020520062750</v>
@@ -75837,10 +75837,10 @@
         <v>44440</v>
       </c>
       <c r="B470" t="n">
-        <v>107526843694457.2</v>
+        <v>107532843694457.2</v>
       </c>
       <c r="C470" t="n">
-        <v>107526843694457.2</v>
+        <v>107532843694457.2</v>
       </c>
       <c r="D470" t="n">
         <v>36342098160270.53</v>
@@ -75849,10 +75849,10 @@
         <v>36342098160270.53</v>
       </c>
       <c r="F470" t="n">
-        <v>20959800000000</v>
+        <v>20965800000000</v>
       </c>
       <c r="G470" t="n">
-        <v>20959800000000</v>
+        <v>20965800000000</v>
       </c>
       <c r="H470" t="n">
         <v>16797139754550</v>
@@ -76016,10 +76016,10 @@
         <v>44470</v>
       </c>
       <c r="B471" t="n">
-        <v>108072171239154.1</v>
+        <v>108078371239154.1</v>
       </c>
       <c r="C471" t="n">
-        <v>108072171239154.1</v>
+        <v>108078371239154.1</v>
       </c>
       <c r="D471" t="n">
         <v>36521910077228.52</v>
@@ -76028,10 +76028,10 @@
         <v>36521910077228.52</v>
       </c>
       <c r="F471" t="n">
-        <v>21140000000000</v>
+        <v>21146200000000</v>
       </c>
       <c r="G471" t="n">
-        <v>21140000000000</v>
+        <v>21146200000000</v>
       </c>
       <c r="H471" t="n">
         <v>16854592418100</v>
@@ -76195,10 +76195,10 @@
         <v>44501</v>
       </c>
       <c r="B472" t="n">
-        <v>108392895294532.6</v>
+        <v>108398895294532.6</v>
       </c>
       <c r="C472" t="n">
-        <v>108392895294532.6</v>
+        <v>108398895294532.6</v>
       </c>
       <c r="D472" t="n">
         <v>37020942803268.39</v>
@@ -76207,10 +76207,10 @@
         <v>37020942803268.39</v>
       </c>
       <c r="F472" t="n">
-        <v>21314400000000</v>
+        <v>21320400000000</v>
       </c>
       <c r="G472" t="n">
-        <v>21314400000000</v>
+        <v>21320400000000</v>
       </c>
       <c r="H472" t="n">
         <v>16578330739850</v>
@@ -76374,10 +76374,10 @@
         <v>44531</v>
       </c>
       <c r="B473" t="n">
-        <v>109456121616408.5</v>
+        <v>109461521616408.5</v>
       </c>
       <c r="C473" t="n">
-        <v>109456121616408.5</v>
+        <v>109461521616408.5</v>
       </c>
       <c r="D473" t="n">
         <v>37513571889611.31</v>
@@ -76386,10 +76386,10 @@
         <v>37513571889611.31</v>
       </c>
       <c r="F473" t="n">
-        <v>21495000000000</v>
+        <v>21500400000000</v>
       </c>
       <c r="G473" t="n">
-        <v>21495000000000</v>
+        <v>21500400000000</v>
       </c>
       <c r="H473" t="n">
         <v>16760316365700</v>
@@ -76553,10 +76553,10 @@
         <v>44562</v>
       </c>
       <c r="B474" t="n">
-        <v>110014859148885.4</v>
+        <v>110021259148885.4</v>
       </c>
       <c r="C474" t="n">
-        <v>110014859148885.4</v>
+        <v>110021259148885.4</v>
       </c>
       <c r="D474" t="n">
         <v>38220622592563.48</v>
@@ -76565,10 +76565,10 @@
         <v>38220622592563.48</v>
       </c>
       <c r="F474" t="n">
-        <v>21552400000000</v>
+        <v>21558800000000</v>
       </c>
       <c r="G474" t="n">
-        <v>21552400000000</v>
+        <v>21558800000000</v>
       </c>
       <c r="H474" t="n">
         <v>16650537685950</v>
@@ -76732,10 +76732,10 @@
         <v>44593</v>
       </c>
       <c r="B475" t="n">
-        <v>110555735066643.3</v>
+        <v>110562135066643.3</v>
       </c>
       <c r="C475" t="n">
-        <v>110555735066643.3</v>
+        <v>110562135066643.3</v>
       </c>
       <c r="D475" t="n">
         <v>38702189144632.55</v>
@@ -76744,10 +76744,10 @@
         <v>38702189144632.55</v>
       </c>
       <c r="F475" t="n">
-        <v>21608600000000</v>
+        <v>21615000000000</v>
       </c>
       <c r="G475" t="n">
-        <v>21608600000000</v>
+        <v>21615000000000</v>
       </c>
       <c r="H475" t="n">
         <v>16709231283500</v>
@@ -76911,10 +76911,10 @@
         <v>44621</v>
       </c>
       <c r="B476" t="n">
-        <v>111037403146487.1</v>
+        <v>111046803146487.1</v>
       </c>
       <c r="C476" t="n">
-        <v>111037403146487.1</v>
+        <v>111046803146487.1</v>
       </c>
       <c r="D476" t="n">
         <v>39383290760012.62</v>
@@ -76923,10 +76923,10 @@
         <v>39383290760012.62</v>
       </c>
       <c r="F476" t="n">
-        <v>21711600000000</v>
+        <v>21721000000000</v>
       </c>
       <c r="G476" t="n">
-        <v>21711600000000</v>
+        <v>21721000000000</v>
       </c>
       <c r="H476" t="n">
         <v>16548992391100</v>
@@ -77090,10 +77090,10 @@
         <v>44652</v>
       </c>
       <c r="B477" t="n">
-        <v>107757757619480.4</v>
+        <v>107765757619480.4</v>
       </c>
       <c r="C477" t="n">
-        <v>107757757619480.4</v>
+        <v>107765757619480.4</v>
       </c>
       <c r="D477" t="n">
         <v>37828554782082.32</v>
@@ -77102,10 +77102,10 @@
         <v>37828554782082.32</v>
       </c>
       <c r="F477" t="n">
-        <v>21714300000000</v>
+        <v>21722300000000</v>
       </c>
       <c r="G477" t="n">
-        <v>21714300000000</v>
+        <v>21722300000000</v>
       </c>
       <c r="H477" t="n">
         <v>15836373137970</v>
@@ -77269,10 +77269,10 @@
         <v>44682</v>
       </c>
       <c r="B478" t="n">
-        <v>108676146059551.9</v>
+        <v>108679446059551.9</v>
       </c>
       <c r="C478" t="n">
-        <v>108676146059551.9</v>
+        <v>108679446059551.9</v>
       </c>
       <c r="D478" t="n">
         <v>37875660606423.96</v>
@@ -77281,10 +77281,10 @@
         <v>37875660606423.96</v>
       </c>
       <c r="F478" t="n">
-        <v>21688200000000</v>
+        <v>21691500000000</v>
       </c>
       <c r="G478" t="n">
-        <v>21688200000000</v>
+        <v>21691500000000</v>
       </c>
       <c r="H478" t="n">
         <v>16165295222050</v>
@@ -77448,10 +77448,10 @@
         <v>44713</v>
       </c>
       <c r="B479" t="n">
-        <v>108184864907716.9</v>
+        <v>108190864907716.9</v>
       </c>
       <c r="C479" t="n">
-        <v>108184864907716.9</v>
+        <v>108190864907716.9</v>
       </c>
       <c r="D479" t="n">
         <v>38533723429663.24</v>
@@ -77460,10 +77460,10 @@
         <v>38533723429663.24</v>
       </c>
       <c r="F479" t="n">
-        <v>21644400000000</v>
+        <v>21650400000000</v>
       </c>
       <c r="G479" t="n">
-        <v>21644400000000</v>
+        <v>21650400000000</v>
       </c>
       <c r="H479" t="n">
         <v>15879421906120</v>
@@ -77627,10 +77627,10 @@
         <v>44743</v>
       </c>
       <c r="B480" t="n">
-        <v>107675444550648.6</v>
+        <v>107677444550648.6</v>
       </c>
       <c r="C480" t="n">
-        <v>107675444550648.6</v>
+        <v>107677444550648.6</v>
       </c>
       <c r="D480" t="n">
         <v>38231705544762.95</v>
@@ -77639,10 +77639,10 @@
         <v>38231705544762.95</v>
       </c>
       <c r="F480" t="n">
-        <v>21640900000000</v>
+        <v>21642900000000</v>
       </c>
       <c r="G480" t="n">
-        <v>21640900000000</v>
+        <v>21642900000000</v>
       </c>
       <c r="H480" t="n">
         <v>15590574939000</v>
@@ -77806,10 +77806,10 @@
         <v>44774</v>
       </c>
       <c r="B481" t="n">
-        <v>106305468052177.1</v>
+        <v>106300068052177.1</v>
       </c>
       <c r="C481" t="n">
-        <v>106305468052177.1</v>
+        <v>106300068052177.1</v>
       </c>
       <c r="D481" t="n">
         <v>37669738713891.71</v>
@@ -77818,10 +77818,10 @@
         <v>37669738713891.71</v>
       </c>
       <c r="F481" t="n">
-        <v>21624400000000</v>
+        <v>21619000000000</v>
       </c>
       <c r="G481" t="n">
-        <v>21624400000000</v>
+        <v>21619000000000</v>
       </c>
       <c r="H481" t="n">
         <v>15440397451440</v>
@@ -77985,10 +77985,10 @@
         <v>44805</v>
       </c>
       <c r="B482" t="n">
-        <v>104130830817583.3</v>
+        <v>104162830817583.3</v>
       </c>
       <c r="C482" t="n">
-        <v>104130830817583.3</v>
+        <v>104162830817583.3</v>
       </c>
       <c r="D482" t="n">
         <v>36924170942573.98</v>
@@ -77997,10 +77997,10 @@
         <v>36924170942573.98</v>
       </c>
       <c r="F482" t="n">
-        <v>21507100000000</v>
+        <v>21539100000000</v>
       </c>
       <c r="G482" t="n">
-        <v>21507100000000</v>
+        <v>21539100000000</v>
       </c>
       <c r="H482" t="n">
         <v>15138835290150</v>
@@ -78164,10 +78164,10 @@
         <v>44835</v>
       </c>
       <c r="B483" t="n">
-        <v>102814417820482.4</v>
+        <v>102845017820482.4</v>
       </c>
       <c r="C483" t="n">
-        <v>102814417820482.4</v>
+        <v>102845017820482.4</v>
       </c>
       <c r="D483" t="n">
         <v>35785997397794.98</v>
@@ -78176,10 +78176,10 @@
         <v>35785997397794.98</v>
       </c>
       <c r="F483" t="n">
-        <v>21440900000000</v>
+        <v>21471500000000</v>
       </c>
       <c r="G483" t="n">
-        <v>21440900000000</v>
+        <v>21471500000000</v>
       </c>
       <c r="H483" t="n">
         <v>15188764777040</v>
@@ -78343,10 +78343,10 @@
         <v>44866</v>
       </c>
       <c r="B484" t="n">
-        <v>106802384899234.6</v>
+        <v>106822084899234.6</v>
       </c>
       <c r="C484" t="n">
-        <v>106802384899234.6</v>
+        <v>106822084899234.6</v>
       </c>
       <c r="D484" t="n">
         <v>37347562610229.27</v>
@@ -78355,10 +78355,10 @@
         <v>37347562610229.27</v>
       </c>
       <c r="F484" t="n">
-        <v>21385500000000</v>
+        <v>21405200000000</v>
       </c>
       <c r="G484" t="n">
-        <v>21385500000000</v>
+        <v>21405200000000</v>
       </c>
       <c r="H484" t="n">
         <v>15952404973760</v>
@@ -78522,10 +78522,10 @@
         <v>44896</v>
       </c>
       <c r="B485" t="n">
-        <v>108899410862639.5</v>
+        <v>108914710862639.5</v>
       </c>
       <c r="C485" t="n">
-        <v>108899410862639.5</v>
+        <v>108914710862639.5</v>
       </c>
       <c r="D485" t="n">
         <v>38629020472075.62</v>
@@ -78534,10 +78534,10 @@
         <v>38629020472075.62</v>
       </c>
       <c r="F485" t="n">
-        <v>21294000000000</v>
+        <v>21309300000000</v>
       </c>
       <c r="G485" t="n">
-        <v>21294000000000</v>
+        <v>21309300000000</v>
       </c>
       <c r="H485" t="n">
         <v>16333501821340</v>
@@ -78701,10 +78701,10 @@
         <v>44927</v>
       </c>
       <c r="B486" t="n">
-        <v>111684831403306.4</v>
+        <v>111700031403306.4</v>
       </c>
       <c r="C486" t="n">
-        <v>111684831403306.4</v>
+        <v>111700031403306.4</v>
       </c>
       <c r="D486" t="n">
         <v>40543008810246.54</v>
@@ -78713,10 +78713,10 @@
         <v>40543008810246.54</v>
       </c>
       <c r="F486" t="n">
-        <v>21207600000000</v>
+        <v>21222800000000</v>
       </c>
       <c r="G486" t="n">
-        <v>21207600000000</v>
+        <v>21222800000000</v>
       </c>
       <c r="H486" t="n">
         <v>16604553041940</v>
@@ -78880,10 +78880,10 @@
         <v>44958</v>
       </c>
       <c r="B487" t="n">
-        <v>109187008839414.6</v>
+        <v>109202908839414.6</v>
       </c>
       <c r="C487" t="n">
-        <v>109187008839414.6</v>
+        <v>109202908839414.6</v>
       </c>
       <c r="D487" t="n">
         <v>39746814772071.55</v>
@@ -78892,10 +78892,10 @@
         <v>39746814772071.55</v>
       </c>
       <c r="F487" t="n">
-        <v>21134800000000</v>
+        <v>21150700000000</v>
       </c>
       <c r="G487" t="n">
-        <v>21134800000000</v>
+        <v>21150700000000</v>
       </c>
       <c r="H487" t="n">
         <v>16107056577270</v>
@@ -79059,10 +79059,10 @@
         <v>44986</v>
       </c>
       <c r="B488" t="n">
-        <v>111110712555955.7</v>
+        <v>111125412555955.7</v>
       </c>
       <c r="C488" t="n">
-        <v>111110712555955.7</v>
+        <v>111125412555955.7</v>
       </c>
       <c r="D488" t="n">
         <v>40986243101163.52</v>
@@ -79071,10 +79071,10 @@
         <v>40986243101163.52</v>
       </c>
       <c r="F488" t="n">
-        <v>20888100000000</v>
+        <v>20902800000000</v>
       </c>
       <c r="G488" t="n">
-        <v>20888100000000</v>
+        <v>20902800000000</v>
       </c>
       <c r="H488" t="n">
         <v>16464995411520</v>
@@ -79238,10 +79238,10 @@
         <v>45017</v>
       </c>
       <c r="B489" t="n">
-        <v>110736880750444.2</v>
+        <v>110749580750444.2</v>
       </c>
       <c r="C489" t="n">
-        <v>110736880750444.2</v>
+        <v>110749580750444.2</v>
       </c>
       <c r="D489" t="n">
         <v>40640609217856.88</v>
@@ -79250,10 +79250,10 @@
         <v>40640609217856.88</v>
       </c>
       <c r="F489" t="n">
-        <v>20732200000000</v>
+        <v>20744900000000</v>
       </c>
       <c r="G489" t="n">
-        <v>20732200000000</v>
+        <v>20744900000000</v>
       </c>
       <c r="H489" t="n">
         <v>16690247047740</v>
@@ -79417,10 +79417,10 @@
         <v>45047</v>
       </c>
       <c r="B490" t="n">
-        <v>109013980332960.3</v>
+        <v>109022580332960.3</v>
       </c>
       <c r="C490" t="n">
-        <v>109013980332960.3</v>
+        <v>109022580332960.3</v>
       </c>
       <c r="D490" t="n">
         <v>39665640513592.2</v>
@@ -79429,10 +79429,10 @@
         <v>39665640513592.2</v>
       </c>
       <c r="F490" t="n">
-        <v>20829000000000</v>
+        <v>20837600000000</v>
       </c>
       <c r="G490" t="n">
-        <v>20829000000000</v>
+        <v>20837600000000</v>
       </c>
       <c r="H490" t="n">
         <v>16152493015890</v>
@@ -79596,10 +79596,10 @@
         <v>45078</v>
       </c>
       <c r="B491" t="n">
-        <v>109309933790999.9</v>
+        <v>109313833790999.9</v>
       </c>
       <c r="C491" t="n">
-        <v>109309933790999.9</v>
+        <v>109313833790999.9</v>
       </c>
       <c r="D491" t="n">
         <v>39621902883700.41</v>
@@ -79608,10 +79608,10 @@
         <v>39621902883700.41</v>
       </c>
       <c r="F491" t="n">
-        <v>20816400000000</v>
+        <v>20820300000000</v>
       </c>
       <c r="G491" t="n">
-        <v>20816400000000</v>
+        <v>20820300000000</v>
       </c>
       <c r="H491" t="n">
         <v>16495382395310</v>
@@ -79775,10 +79775,10 @@
         <v>45108</v>
       </c>
       <c r="B492" t="n">
-        <v>110068394262056.1</v>
+        <v>110072494262056.1</v>
       </c>
       <c r="C492" t="n">
-        <v>110068394262056.1</v>
+        <v>110072494262056.1</v>
       </c>
       <c r="D492" t="n">
         <v>39958999775985.66</v>
@@ -79787,10 +79787,10 @@
         <v>39958999775985.66</v>
       </c>
       <c r="F492" t="n">
-        <v>20789100000000</v>
+        <v>20793200000000</v>
       </c>
       <c r="G492" t="n">
-        <v>20789100000000</v>
+        <v>20793200000000</v>
       </c>
       <c r="H492" t="n">
         <v>16569167758000</v>
@@ -79954,10 +79954,10 @@
         <v>45139</v>
       </c>
       <c r="B493" t="n">
-        <v>108736308106078.1</v>
+        <v>108738308106078.1</v>
       </c>
       <c r="C493" t="n">
-        <v>108736308106078.1</v>
+        <v>108738308106078.1</v>
       </c>
       <c r="D493" t="n">
         <v>39535159899141.6</v>
@@ -79966,10 +79966,10 @@
         <v>39535159899141.6</v>
       </c>
       <c r="F493" t="n">
-        <v>20763400000000</v>
+        <v>20765400000000</v>
       </c>
       <c r="G493" t="n">
-        <v>20763400000000</v>
+        <v>20765400000000</v>
       </c>
       <c r="H493" t="n">
         <v>16299495669470</v>
@@ -80134,7 +80134,7 @@
       </c>
       <c r="B494" t="inlineStr"/>
       <c r="C494" t="n">
-        <v>107958545363577.2</v>
+        <v>107959445363577.2</v>
       </c>
       <c r="D494" t="n">
         <v>39677544003835.35</v>
@@ -80143,10 +80143,10 @@
         <v>39677544003835.35</v>
       </c>
       <c r="F494" t="n">
-        <v>20710100000000</v>
+        <v>20711000000000</v>
       </c>
       <c r="G494" t="n">
-        <v>20710100000000</v>
+        <v>20711000000000</v>
       </c>
       <c r="H494" t="n">
         <v>15937599595760</v>
@@ -80309,7 +80309,7 @@
       </c>
       <c r="B495" t="inlineStr"/>
       <c r="C495" t="n">
-        <v>107391982002241.3</v>
+        <v>107384982002241.3</v>
       </c>
       <c r="D495" t="n">
         <v>39400654792011.27</v>
@@ -80318,10 +80318,10 @@
         <v>39400654792011.27</v>
       </c>
       <c r="F495" t="n">
-        <v>20698700000000</v>
+        <v>20691700000000</v>
       </c>
       <c r="G495" t="n">
-        <v>20698700000000</v>
+        <v>20691700000000</v>
       </c>
       <c r="H495" t="n">
         <v>15889847394720</v>
@@ -80484,7 +80484,7 @@
       </c>
       <c r="B496" t="inlineStr"/>
       <c r="C496" t="n">
-        <v>110271128052152.8</v>
+        <v>110251428052152.8</v>
       </c>
       <c r="D496" t="n">
         <v>40810233340340.55</v>
@@ -80493,10 +80493,10 @@
         <v>40810233340340.55</v>
       </c>
       <c r="F496" t="n">
-        <v>20724900000000</v>
+        <v>20705200000000</v>
       </c>
       <c r="G496" t="n">
-        <v>20724900000000</v>
+        <v>20705200000000</v>
       </c>
       <c r="H496" t="n">
         <v>16379237754430</v>
@@ -80658,10 +80658,10 @@
         <v>45261</v>
       </c>
       <c r="B497" t="n">
-        <v>112166957992284.8</v>
+        <v>112134857992284.8</v>
       </c>
       <c r="C497" t="n">
-        <v>112166957992284.8</v>
+        <v>112134857992284.8</v>
       </c>
       <c r="D497" t="n">
         <v>41180636298310.62</v>
@@ -80670,10 +80670,10 @@
         <v>41180636298310.62</v>
       </c>
       <c r="F497" t="n">
-        <v>20786100000000</v>
+        <v>20754000000000</v>
       </c>
       <c r="G497" t="n">
-        <v>20786100000000</v>
+        <v>20754000000000</v>
       </c>
       <c r="H497" t="n">
         <v>16709833501250</v>
@@ -80837,10 +80837,10 @@
         <v>45292</v>
       </c>
       <c r="B498" t="n">
-        <v>111348322546276.6</v>
+        <v>111317313397831.9</v>
       </c>
       <c r="C498" t="n">
-        <v>111348322546276.6</v>
+        <v>111317313397831.9</v>
       </c>
       <c r="D498" t="n">
         <v>41528299938605.79</v>
@@ -80849,10 +80849,10 @@
         <v>41528299938605.79</v>
       </c>
       <c r="F498" t="n">
-        <v>20790200000000</v>
+        <v>20754200000000</v>
       </c>
       <c r="G498" t="n">
-        <v>20790200000000</v>
+        <v>20754200000000</v>
       </c>
       <c r="H498" t="n">
         <v>16303639039200</v>
@@ -80873,10 +80873,10 @@
         <v>3811590139183.171</v>
       </c>
       <c r="N498" t="n">
-        <v>2937661297579.412</v>
+        <v>2942652149134.647</v>
       </c>
       <c r="O498" t="n">
-        <v>2937661297579.412</v>
+        <v>2942652149134.647</v>
       </c>
       <c r="P498" t="n">
         <v>2188553213262.382</v>
@@ -81017,7 +81017,7 @@
       </c>
       <c r="B499" t="inlineStr"/>
       <c r="C499" t="n">
-        <v>111274029021663.5</v>
+        <v>111243209708380</v>
       </c>
       <c r="D499" t="n">
         <v>41679277048085.49</v>
@@ -81026,16 +81026,16 @@
         <v>41679277048085.49</v>
       </c>
       <c r="F499" t="n">
-        <v>20783600000000</v>
+        <v>20748600000000</v>
       </c>
       <c r="G499" t="n">
-        <v>20783600000000</v>
+        <v>20748600000000</v>
       </c>
       <c r="H499" t="n">
-        <v>16322251919960</v>
+        <v>16318727263720</v>
       </c>
       <c r="I499" t="n">
-        <v>16322251919960</v>
+        <v>16318727263720</v>
       </c>
       <c r="J499" t="n">
         <v>8261123409703.144</v>
@@ -81049,9 +81049,11 @@
       <c r="M499" t="n">
         <v>3799744984913.712</v>
       </c>
-      <c r="N499" t="inlineStr"/>
+      <c r="N499" t="n">
+        <v>2944375440173.822</v>
+      </c>
       <c r="O499" t="n">
-        <v>2937661297579.412</v>
+        <v>2944375440173.822</v>
       </c>
       <c r="P499" t="n">
         <v>2189831467490.916</v>
@@ -81175,9 +81177,146 @@
       <c r="BE499" t="n">
         <v>195960785314.0057</v>
       </c>
-      <c r="BF499" t="inlineStr"/>
+      <c r="BF499" t="n">
+        <v>127680429128.7386</v>
+      </c>
       <c r="BG499" t="n">
-        <v>126689228766.6775</v>
+        <v>127680429128.7386</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="n">
+        <v>111892192588044.4</v>
+      </c>
+      <c r="D500" t="n">
+        <v>42216573866312.09</v>
+      </c>
+      <c r="E500" t="n">
+        <v>42216573866312.09</v>
+      </c>
+      <c r="F500" t="n">
+        <v>20841200000000</v>
+      </c>
+      <c r="G500" t="n">
+        <v>20841200000000</v>
+      </c>
+      <c r="H500" t="n">
+        <v>16335393282560</v>
+      </c>
+      <c r="I500" t="n">
+        <v>16335393282560</v>
+      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>8261123409703.144</v>
+      </c>
+      <c r="L500" t="inlineStr"/>
+      <c r="M500" t="n">
+        <v>3799744984913.712</v>
+      </c>
+      <c r="N500" t="inlineStr"/>
+      <c r="O500" t="n">
+        <v>2944375440173.822</v>
+      </c>
+      <c r="P500" t="inlineStr"/>
+      <c r="Q500" t="n">
+        <v>2189831467490.916</v>
+      </c>
+      <c r="R500" t="inlineStr"/>
+      <c r="S500" t="n">
+        <v>1947112916328.188</v>
+      </c>
+      <c r="T500" t="n">
+        <v>1949935095024.891</v>
+      </c>
+      <c r="U500" t="n">
+        <v>1949935095024.891</v>
+      </c>
+      <c r="V500" t="inlineStr"/>
+      <c r="W500" t="n">
+        <v>1853061239681.11</v>
+      </c>
+      <c r="X500" t="inlineStr"/>
+      <c r="Y500" t="n">
+        <v>1089556164383.562</v>
+      </c>
+      <c r="Z500" t="inlineStr"/>
+      <c r="AA500" t="n">
+        <v>1029122711803.082</v>
+      </c>
+      <c r="AB500" t="inlineStr"/>
+      <c r="AC500" t="n">
+        <v>1183709067503.42</v>
+      </c>
+      <c r="AD500" t="n">
+        <v>742206503479.7217</v>
+      </c>
+      <c r="AE500" t="n">
+        <v>742206503479.7217</v>
+      </c>
+      <c r="AF500" t="inlineStr"/>
+      <c r="AG500" t="n">
+        <v>814186656188.7894</v>
+      </c>
+      <c r="AH500" t="inlineStr"/>
+      <c r="AI500" t="n">
+        <v>641310495704.6049</v>
+      </c>
+      <c r="AJ500" t="inlineStr"/>
+      <c r="AK500" t="n">
+        <v>583853533477.0009</v>
+      </c>
+      <c r="AL500" t="n">
+        <v>560782334384.858</v>
+      </c>
+      <c r="AM500" t="n">
+        <v>560782334384.858</v>
+      </c>
+      <c r="AN500" t="inlineStr"/>
+      <c r="AO500" t="n">
+        <v>508421330662.1678</v>
+      </c>
+      <c r="AP500" t="n">
+        <v>571170772253.287</v>
+      </c>
+      <c r="AQ500" t="n">
+        <v>571170772253.287</v>
+      </c>
+      <c r="AR500" t="inlineStr"/>
+      <c r="AS500" t="n">
+        <v>287319041319.4484</v>
+      </c>
+      <c r="AT500" t="inlineStr"/>
+      <c r="AU500" t="n">
+        <v>293541182980.9913</v>
+      </c>
+      <c r="AV500" t="inlineStr"/>
+      <c r="AW500" t="n">
+        <v>248209436834.0944</v>
+      </c>
+      <c r="AX500" t="inlineStr"/>
+      <c r="AY500" t="n">
+        <v>253223157269.0833</v>
+      </c>
+      <c r="AZ500" t="inlineStr"/>
+      <c r="BA500" t="n">
+        <v>219079885728.5845</v>
+      </c>
+      <c r="BB500" t="inlineStr"/>
+      <c r="BC500" t="n">
+        <v>204507397441.0525</v>
+      </c>
+      <c r="BD500" t="inlineStr"/>
+      <c r="BE500" t="n">
+        <v>195960785314.0057</v>
+      </c>
+      <c r="BF500" t="inlineStr"/>
+      <c r="BG500" t="n">
+        <v>127680429128.7386</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/M2_USD_Tables/Long28_M2_USD.xlsx
+++ b/Global_M2/M2_USD_Tables/Long28_M2_USD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG499"/>
+  <dimension ref="A1:BG500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,12 +798,8 @@
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="n">
-        <v>9852633969.118982</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>9852633969.118982</v>
-      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
@@ -897,12 +893,8 @@
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="n">
-        <v>10794792899.40829</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>10794792899.40829</v>
-      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="n">
@@ -1000,12 +992,8 @@
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="n">
-        <v>11007394876.75205</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>11007394876.75205</v>
-      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
@@ -1101,12 +1089,8 @@
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="n">
-        <v>11011903614.45783</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>11011903614.45783</v>
-      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
@@ -1202,12 +1186,8 @@
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="n">
-        <v>11175107913.66907</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>11175107913.66907</v>
-      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
@@ -1303,12 +1283,8 @@
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="n">
-        <v>11055756422.45481</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>11055756422.45481</v>
-      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
@@ -1404,12 +1380,8 @@
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="n">
-        <v>11045138226.88275</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>11045138226.88275</v>
-      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
@@ -1505,12 +1477,8 @@
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="n">
-        <v>11132426091.03707</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>11132426091.03707</v>
-      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
@@ -1606,12 +1574,8 @@
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="n">
-        <v>11047273578.28224</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>11047273578.28224</v>
-      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
@@ -1707,12 +1671,8 @@
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="n">
-        <v>10984400465.65774</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>10984400465.65774</v>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
@@ -1808,12 +1768,8 @@
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="n">
-        <v>11098362956.03368</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>11098362956.03368</v>
-      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
@@ -1913,12 +1869,8 @@
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="n">
-        <v>11243117977.52809</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>11243117977.52809</v>
-      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
@@ -2018,12 +1970,8 @@
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="n">
-        <v>11454208675.26378</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>11454208675.26378</v>
-      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
@@ -2123,12 +2071,8 @@
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="n">
-        <v>12029076343.07257</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>12029076343.07257</v>
-      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="n">
@@ -2230,12 +2174,8 @@
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="n">
-        <v>12043667917.4484</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>12043667917.4484</v>
-      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
@@ -2335,12 +2275,8 @@
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="n">
-        <v>12061857614.33286</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>12061857614.33286</v>
-      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
@@ -2440,12 +2376,8 @@
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="n">
-        <v>12274029707.71442</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>12274029707.71442</v>
-      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
@@ -2545,12 +2477,8 @@
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="n">
-        <v>12304980842.91188</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>12304980842.91188</v>
-      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
@@ -2650,12 +2578,8 @@
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="n">
-        <v>12155333808.50558</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>12155333808.50558</v>
-      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
@@ -2755,12 +2679,8 @@
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="n">
-        <v>12098733583.48968</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>12098733583.48968</v>
-      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
@@ -2860,12 +2780,8 @@
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="n">
-        <v>11878133704.73538</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>11878133704.73538</v>
-      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
@@ -2965,12 +2881,8 @@
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="n">
-        <v>11912285581.82661</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>11912285581.82661</v>
-      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
@@ -3070,12 +2982,8 @@
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="n">
-        <v>11844711316.39723</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>11844711316.39723</v>
-      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
@@ -3175,12 +3083,8 @@
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="n">
-        <v>12036224843.85843</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>12036224843.85843</v>
-      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
@@ -3280,12 +3184,8 @@
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="n">
-        <v>12206363845.97648</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>12206363845.97648</v>
-      </c>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
@@ -3389,12 +3289,8 @@
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="n">
-        <v>12435029802.84273</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>12435029802.84273</v>
-      </c>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="n">
@@ -3500,12 +3396,8 @@
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="n">
-        <v>12041828881.84699</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>12041828881.84699</v>
-      </c>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="n">
@@ -3611,12 +3503,8 @@
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="n">
-        <v>11704774535.80902</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>11704774535.80902</v>
-      </c>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="n">
@@ -3722,12 +3610,8 @@
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="n">
-        <v>11960861678.00453</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>11960861678.00453</v>
-      </c>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="n">
@@ -3833,12 +3717,8 @@
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="n">
-        <v>11876853932.58427</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>11876853932.58427</v>
-      </c>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="n">
@@ -3944,12 +3824,8 @@
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="n">
-        <v>11902561797.75281</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>11902561797.75281</v>
-      </c>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="n">
@@ -4055,12 +3931,8 @@
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="n">
-        <v>11943847019.12261</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>11943847019.12261</v>
-      </c>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="n">
@@ -4166,12 +4038,8 @@
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="n">
-        <v>12186041189.93135</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>12186041189.93135</v>
-      </c>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="n">
@@ -4277,12 +4145,8 @@
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="n">
-        <v>11782876106.19469</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>11782876106.19469</v>
-      </c>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="n">
@@ -4388,12 +4252,8 @@
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="n">
-        <v>12565810368.98645</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>12565810368.98645</v>
-      </c>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="n">
@@ -4499,12 +4359,8 @@
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="n">
-        <v>12599577464.78873</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>12599577464.78873</v>
-      </c>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="n">
@@ -4610,12 +4466,8 @@
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="n">
-        <v>13189212410.50119</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>13189212410.50119</v>
-      </c>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="n">
@@ -4721,12 +4573,8 @@
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="n">
-        <v>13371828978.62233</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>13371828978.62233</v>
-      </c>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="n">
@@ -4832,12 +4680,8 @@
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="n">
-        <v>13043795279.27086</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>13043795279.27086</v>
-      </c>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="n">
@@ -4943,12 +4787,8 @@
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="n">
-        <v>12854996522.14236</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>12854996522.14236</v>
-      </c>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="n">
@@ -5054,12 +4894,8 @@
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="n">
-        <v>12850815529.51987</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>12850815529.51987</v>
-      </c>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="n">
@@ -5165,12 +5001,8 @@
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="n">
-        <v>12804010938.92434</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>12804010938.92434</v>
-      </c>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="n">
@@ -5276,12 +5108,8 @@
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="n">
-        <v>12661565915.68146</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>12661565915.68146</v>
-      </c>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="n">
@@ -5387,12 +5215,8 @@
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="n">
-        <v>13065676416.81901</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>13065676416.81901</v>
-      </c>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="inlineStr"/>
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="n">
@@ -5498,12 +5322,8 @@
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="n">
-        <v>13108392733.96183</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>13108392733.96183</v>
-      </c>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="n">
@@ -5609,12 +5429,8 @@
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="n">
-        <v>13353781902.55221</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>13353781902.55221</v>
-      </c>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="n">
@@ -5720,12 +5536,8 @@
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="n">
-        <v>13588167587.47698</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>13588167587.47698</v>
-      </c>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="n">
@@ -5831,12 +5643,8 @@
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="n">
-        <v>13612545454.54545</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>13612545454.54545</v>
-      </c>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="n">
@@ -5942,12 +5750,8 @@
       <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
       <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="n">
-        <v>13871373263.49351</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>13871373263.49351</v>
-      </c>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="n">
@@ -6057,12 +5861,8 @@
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="n">
-        <v>14248515535.09781</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>14248515535.09781</v>
-      </c>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="n">
@@ -6172,12 +5972,8 @@
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="n">
-        <v>14572898719.44121</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>14572898719.44121</v>
-      </c>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="n">
@@ -6287,12 +6083,8 @@
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="n">
-        <v>14664185393.25843</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>14664185393.25843</v>
-      </c>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="n">
@@ -6402,12 +6194,8 @@
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="n">
-        <v>14738702879.88762</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>14738702879.88762</v>
-      </c>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="n">
@@ -6517,12 +6305,8 @@
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="n">
-        <v>14871691003.29722</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>14871691003.29722</v>
-      </c>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="n">
@@ -6632,12 +6416,8 @@
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="n">
-        <v>16154419043.12986</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>16154419043.12986</v>
-      </c>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="n">
@@ -6747,12 +6527,8 @@
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="n">
-        <v>15872710968.47272</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>15872710968.47272</v>
-      </c>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="n">
@@ -6862,12 +6638,8 @@
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
       <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="n">
-        <v>16270914258.64519</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>16270914258.64519</v>
-      </c>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
       <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="n">
@@ -6977,12 +6749,8 @@
       <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="n">
-        <v>16708840304.18251</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>16708840304.18251</v>
-      </c>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
       <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="n">
@@ -7092,12 +6860,8 @@
       <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr"/>
       <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="n">
-        <v>16645624103.29986</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>16645624103.29986</v>
-      </c>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
       <c r="AL60" t="inlineStr"/>
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="n">
@@ -7207,12 +6971,8 @@
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="n">
-        <v>17307751750.78484</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>17307751750.78484</v>
-      </c>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
       <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="n">
@@ -7322,12 +7082,8 @@
       <c r="AG62" t="inlineStr"/>
       <c r="AH62" t="inlineStr"/>
       <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="n">
-        <v>17915145535.2738</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>17915145535.2738</v>
-      </c>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
       <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="n">
@@ -7437,12 +7193,8 @@
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr"/>
       <c r="AI63" t="inlineStr"/>
-      <c r="AJ63" t="n">
-        <v>18572458688.03205</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>18572458688.03205</v>
-      </c>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="n">
@@ -7552,12 +7304,8 @@
       <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="inlineStr"/>
       <c r="AI64" t="inlineStr"/>
-      <c r="AJ64" t="n">
-        <v>18395500618.04697</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>18395500618.04697</v>
-      </c>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
       <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="n">
@@ -7667,12 +7415,8 @@
       <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr"/>
       <c r="AI65" t="inlineStr"/>
-      <c r="AJ65" t="n">
-        <v>18526830479.02705</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>18526830479.02705</v>
-      </c>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
       <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="n">
@@ -7782,12 +7526,8 @@
       <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr"/>
       <c r="AI66" t="inlineStr"/>
-      <c r="AJ66" t="n">
-        <v>18354322838.58071</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>18354322838.58071</v>
-      </c>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
       <c r="AL66" t="inlineStr"/>
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="n">
@@ -7897,12 +7637,8 @@
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="inlineStr"/>
       <c r="AI67" t="inlineStr"/>
-      <c r="AJ67" t="n">
-        <v>18187331670.82294</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>18187331670.82294</v>
-      </c>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
       <c r="AL67" t="inlineStr"/>
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="n">
@@ -8012,12 +7748,8 @@
       <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr"/>
       <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="n">
-        <v>18569371598.2187</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>18569371598.2187</v>
-      </c>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
       <c r="AL68" t="inlineStr"/>
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="n">
@@ -8127,12 +7859,8 @@
       <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr"/>
       <c r="AI69" t="inlineStr"/>
-      <c r="AJ69" t="n">
-        <v>18336101612.11529</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>18336101612.11529</v>
-      </c>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
       <c r="AL69" t="inlineStr"/>
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="n">
@@ -8242,12 +7970,8 @@
       <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr"/>
       <c r="AI70" t="inlineStr"/>
-      <c r="AJ70" t="n">
-        <v>18417670093.00049</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>18417670093.00049</v>
-      </c>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
       <c r="AL70" t="inlineStr"/>
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="n">
@@ -8357,12 +8081,8 @@
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
       <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="n">
-        <v>18716479217.60391</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>18716479217.60391</v>
-      </c>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="n">
@@ -8472,12 +8192,8 @@
       <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
       <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="n">
-        <v>18977853993.14062</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>18977853993.14062</v>
-      </c>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
       <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="n">
@@ -8587,12 +8303,8 @@
       <c r="AG73" t="inlineStr"/>
       <c r="AH73" t="inlineStr"/>
       <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="n">
-        <v>19715873810.71608</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>19715873810.71608</v>
-      </c>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
       <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="n">
@@ -8702,12 +8414,8 @@
       <c r="AG74" t="inlineStr"/>
       <c r="AH74" t="inlineStr"/>
       <c r="AI74" t="inlineStr"/>
-      <c r="AJ74" t="n">
-        <v>20676263792.66102</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>20676263792.66102</v>
-      </c>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
       <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="n">
@@ -8817,12 +8525,8 @@
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
       <c r="AI75" t="inlineStr"/>
-      <c r="AJ75" t="n">
-        <v>21638868894.60154</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>21638868894.60154</v>
-      </c>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
       <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="n">
@@ -8932,12 +8636,8 @@
       <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
       <c r="AI76" t="inlineStr"/>
-      <c r="AJ76" t="n">
-        <v>21837558199.6896</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>21837558199.6896</v>
-      </c>
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
       <c r="AL76" t="inlineStr"/>
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="n">
@@ -9047,12 +8747,8 @@
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
       <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="n">
-        <v>22372708441.22216</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>22372708441.22216</v>
-      </c>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
       <c r="AL77" t="inlineStr"/>
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="n">
@@ -9162,12 +8858,8 @@
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr"/>
       <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="n">
-        <v>22389602446.48318</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>22389602446.48318</v>
-      </c>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
       <c r="AL78" t="inlineStr"/>
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="n">
@@ -9277,12 +8969,8 @@
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
-      <c r="AJ79" t="n">
-        <v>22738098898.28337</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>22738098898.28337</v>
-      </c>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
       <c r="AL79" t="inlineStr"/>
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="n">
@@ -9392,12 +9080,8 @@
       <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr"/>
       <c r="AI80" t="inlineStr"/>
-      <c r="AJ80" t="n">
-        <v>23234322250.63939</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>23234322250.63939</v>
-      </c>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
       <c r="AL80" t="inlineStr"/>
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="n">
@@ -9507,12 +9191,8 @@
       <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr"/>
       <c r="AI81" t="inlineStr"/>
-      <c r="AJ81" t="n">
-        <v>23896777493.60614</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>23896777493.60614</v>
-      </c>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr"/>
       <c r="AL81" t="inlineStr"/>
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="n">
@@ -9622,12 +9302,8 @@
       <c r="AG82" t="inlineStr"/>
       <c r="AH82" t="inlineStr"/>
       <c r="AI82" t="inlineStr"/>
-      <c r="AJ82" t="n">
-        <v>24192619169.65659</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>24192619169.65659</v>
-      </c>
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr"/>
       <c r="AL82" t="inlineStr"/>
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="n">
@@ -9737,12 +9413,8 @@
       <c r="AG83" t="inlineStr"/>
       <c r="AH83" t="inlineStr"/>
       <c r="AI83" t="inlineStr"/>
-      <c r="AJ83" t="n">
-        <v>24400457200.91441</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>24400457200.91441</v>
-      </c>
+      <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr"/>
       <c r="AL83" t="inlineStr"/>
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="n">
@@ -9852,12 +9524,8 @@
       <c r="AG84" t="inlineStr"/>
       <c r="AH84" t="inlineStr"/>
       <c r="AI84" t="inlineStr"/>
-      <c r="AJ84" t="n">
-        <v>25044234693.87755</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>25044234693.87755</v>
-      </c>
+      <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr"/>
       <c r="AL84" t="inlineStr"/>
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="n">
@@ -9967,12 +9635,8 @@
       <c r="AG85" t="inlineStr"/>
       <c r="AH85" t="inlineStr"/>
       <c r="AI85" t="inlineStr"/>
-      <c r="AJ85" t="n">
-        <v>25223607562.59581</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>25223607562.59581</v>
-      </c>
+      <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr"/>
       <c r="AL85" t="inlineStr"/>
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="n">
@@ -10090,12 +9754,8 @@
       </c>
       <c r="AH86" t="inlineStr"/>
       <c r="AI86" t="inlineStr"/>
-      <c r="AJ86" t="n">
-        <v>26771369827.80776</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>26771369827.80776</v>
-      </c>
+      <c r="AJ86" t="inlineStr"/>
+      <c r="AK86" t="inlineStr"/>
       <c r="AL86" t="inlineStr"/>
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="n">
@@ -10217,12 +9877,8 @@
       </c>
       <c r="AH87" t="inlineStr"/>
       <c r="AI87" t="inlineStr"/>
-      <c r="AJ87" t="n">
-        <v>27092825229.96058</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>27092825229.96058</v>
-      </c>
+      <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
       <c r="AL87" t="inlineStr"/>
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="n">
@@ -10344,12 +10000,8 @@
       </c>
       <c r="AH88" t="inlineStr"/>
       <c r="AI88" t="inlineStr"/>
-      <c r="AJ88" t="n">
-        <v>30742221030.04292</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>30742221030.04292</v>
-      </c>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
       <c r="AL88" t="inlineStr"/>
       <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="n">
@@ -10471,12 +10123,8 @@
       </c>
       <c r="AH89" t="inlineStr"/>
       <c r="AI89" t="inlineStr"/>
-      <c r="AJ89" t="n">
-        <v>28662399571.50509</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>28662399571.50509</v>
-      </c>
+      <c r="AJ89" t="inlineStr"/>
+      <c r="AK89" t="inlineStr"/>
       <c r="AL89" t="inlineStr"/>
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="n">
@@ -10598,12 +10246,8 @@
       </c>
       <c r="AH90" t="inlineStr"/>
       <c r="AI90" t="inlineStr"/>
-      <c r="AJ90" t="n">
-        <v>28569238928.66613</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>28569238928.66613</v>
-      </c>
+      <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
       <c r="AL90" t="inlineStr"/>
       <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="n">
@@ -10725,12 +10369,8 @@
       </c>
       <c r="AH91" t="inlineStr"/>
       <c r="AI91" t="inlineStr"/>
-      <c r="AJ91" t="n">
-        <v>29063345764.51785</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>29063345764.51785</v>
-      </c>
+      <c r="AJ91" t="inlineStr"/>
+      <c r="AK91" t="inlineStr"/>
       <c r="AL91" t="inlineStr"/>
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="n">
@@ -10852,12 +10492,8 @@
       </c>
       <c r="AH92" t="inlineStr"/>
       <c r="AI92" t="inlineStr"/>
-      <c r="AJ92" t="n">
-        <v>30036461704.42287</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>30036461704.42287</v>
-      </c>
+      <c r="AJ92" t="inlineStr"/>
+      <c r="AK92" t="inlineStr"/>
       <c r="AL92" t="inlineStr"/>
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="n">
@@ -10979,12 +10615,8 @@
       </c>
       <c r="AH93" t="inlineStr"/>
       <c r="AI93" t="inlineStr"/>
-      <c r="AJ93" t="n">
-        <v>30417870722.43346</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>30417870722.43346</v>
-      </c>
+      <c r="AJ93" t="inlineStr"/>
+      <c r="AK93" t="inlineStr"/>
       <c r="AL93" t="inlineStr"/>
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="n">
@@ -11106,12 +10738,8 @@
       </c>
       <c r="AH94" t="inlineStr"/>
       <c r="AI94" t="inlineStr"/>
-      <c r="AJ94" t="n">
-        <v>31517044825.67792</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>31517044825.67792</v>
-      </c>
+      <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
       <c r="AL94" t="inlineStr"/>
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="n">
@@ -11233,12 +10861,8 @@
       </c>
       <c r="AH95" t="inlineStr"/>
       <c r="AI95" t="inlineStr"/>
-      <c r="AJ95" t="n">
-        <v>32675694050.9915</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>32675694050.9915</v>
-      </c>
+      <c r="AJ95" t="inlineStr"/>
+      <c r="AK95" t="inlineStr"/>
       <c r="AL95" t="inlineStr"/>
       <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="n">
@@ -11360,12 +10984,8 @@
       </c>
       <c r="AH96" t="inlineStr"/>
       <c r="AI96" t="inlineStr"/>
-      <c r="AJ96" t="n">
-        <v>33315944491.64542</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>33315944491.64542</v>
-      </c>
+      <c r="AJ96" t="inlineStr"/>
+      <c r="AK96" t="inlineStr"/>
       <c r="AL96" t="inlineStr"/>
       <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="n">
@@ -11487,12 +11107,8 @@
       </c>
       <c r="AH97" t="inlineStr"/>
       <c r="AI97" t="inlineStr"/>
-      <c r="AJ97" t="n">
-        <v>35130266627.60036</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>35130266627.60036</v>
-      </c>
+      <c r="AJ97" t="inlineStr"/>
+      <c r="AK97" t="inlineStr"/>
       <c r="AL97" t="inlineStr"/>
       <c r="AM97" t="inlineStr"/>
       <c r="AN97" t="n">
@@ -11614,12 +11230,8 @@
       </c>
       <c r="AH98" t="inlineStr"/>
       <c r="AI98" t="inlineStr"/>
-      <c r="AJ98" t="n">
-        <v>35585232558.13953</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>35585232558.13953</v>
-      </c>
+      <c r="AJ98" t="inlineStr"/>
+      <c r="AK98" t="inlineStr"/>
       <c r="AL98" t="n">
         <v>42874203821.65605</v>
       </c>
@@ -11749,12 +11361,8 @@
       </c>
       <c r="AH99" t="inlineStr"/>
       <c r="AI99" t="inlineStr"/>
-      <c r="AJ99" t="n">
-        <v>35289643366.61912</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>35289643366.61912</v>
-      </c>
+      <c r="AJ99" t="inlineStr"/>
+      <c r="AK99" t="inlineStr"/>
       <c r="AL99" t="n">
         <v>44518674381.90426</v>
       </c>
@@ -11888,12 +11496,8 @@
       </c>
       <c r="AH100" t="inlineStr"/>
       <c r="AI100" t="inlineStr"/>
-      <c r="AJ100" t="n">
-        <v>35994729220.96728</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>35994729220.96728</v>
-      </c>
+      <c r="AJ100" t="inlineStr"/>
+      <c r="AK100" t="inlineStr"/>
       <c r="AL100" t="n">
         <v>44112970711.29707</v>
       </c>
@@ -12031,12 +11635,8 @@
       </c>
       <c r="AH101" t="inlineStr"/>
       <c r="AI101" t="inlineStr"/>
-      <c r="AJ101" t="n">
-        <v>36142575976.84515</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>36142575976.84515</v>
-      </c>
+      <c r="AJ101" t="inlineStr"/>
+      <c r="AK101" t="inlineStr"/>
       <c r="AL101" t="n">
         <v>43954166666.66666</v>
       </c>
@@ -12174,12 +11774,8 @@
       </c>
       <c r="AH102" t="inlineStr"/>
       <c r="AI102" t="inlineStr"/>
-      <c r="AJ102" t="n">
-        <v>35177703269.06956</v>
-      </c>
-      <c r="AK102" t="n">
-        <v>35177703269.06956</v>
-      </c>
+      <c r="AJ102" t="inlineStr"/>
+      <c r="AK102" t="inlineStr"/>
       <c r="AL102" t="n">
         <v>41989648033.1263</v>
       </c>
@@ -12317,12 +11913,8 @@
       </c>
       <c r="AH103" t="inlineStr"/>
       <c r="AI103" t="inlineStr"/>
-      <c r="AJ103" t="n">
-        <v>35854297872.34043</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>35854297872.34043</v>
-      </c>
+      <c r="AJ103" t="inlineStr"/>
+      <c r="AK103" t="inlineStr"/>
       <c r="AL103" t="n">
         <v>42892212480.66013</v>
       </c>
@@ -12460,12 +12052,8 @@
       </c>
       <c r="AH104" t="inlineStr"/>
       <c r="AI104" t="inlineStr"/>
-      <c r="AJ104" t="n">
-        <v>36238472418.67044</v>
-      </c>
-      <c r="AK104" t="n">
-        <v>36238472418.67044</v>
-      </c>
+      <c r="AJ104" t="inlineStr"/>
+      <c r="AK104" t="inlineStr"/>
       <c r="AL104" t="n">
         <v>43611710323.57473</v>
       </c>
@@ -12603,12 +12191,8 @@
       </c>
       <c r="AH105" t="inlineStr"/>
       <c r="AI105" t="inlineStr"/>
-      <c r="AJ105" t="n">
-        <v>36856616605.27061</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>36856616605.27061</v>
-      </c>
+      <c r="AJ105" t="inlineStr"/>
+      <c r="AK105" t="inlineStr"/>
       <c r="AL105" t="n">
         <v>44910951893.55169</v>
       </c>
@@ -12746,12 +12330,8 @@
       </c>
       <c r="AH106" t="inlineStr"/>
       <c r="AI106" t="inlineStr"/>
-      <c r="AJ106" t="n">
-        <v>38498536753.31382</v>
-      </c>
-      <c r="AK106" t="n">
-        <v>38498536753.31382</v>
-      </c>
+      <c r="AJ106" t="inlineStr"/>
+      <c r="AK106" t="inlineStr"/>
       <c r="AL106" t="n">
         <v>45462480857.5804</v>
       </c>
@@ -12889,12 +12469,8 @@
       </c>
       <c r="AH107" t="inlineStr"/>
       <c r="AI107" t="inlineStr"/>
-      <c r="AJ107" t="n">
-        <v>38573743828.05692</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>38573743828.05692</v>
-      </c>
+      <c r="AJ107" t="inlineStr"/>
+      <c r="AK107" t="inlineStr"/>
       <c r="AL107" t="n">
         <v>46420570264.76578</v>
       </c>
@@ -13032,12 +12608,8 @@
       </c>
       <c r="AH108" t="inlineStr"/>
       <c r="AI108" t="inlineStr"/>
-      <c r="AJ108" t="n">
-        <v>39929492129.49213</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>39929492129.49213</v>
-      </c>
+      <c r="AJ108" t="inlineStr"/>
+      <c r="AK108" t="inlineStr"/>
       <c r="AL108" t="n">
         <v>47422764227.64228</v>
       </c>
@@ -13175,12 +12747,8 @@
       </c>
       <c r="AH109" t="inlineStr"/>
       <c r="AI109" t="inlineStr"/>
-      <c r="AJ109" t="n">
-        <v>39757121705.65591</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>39757121705.65591</v>
-      </c>
+      <c r="AJ109" t="inlineStr"/>
+      <c r="AK109" t="inlineStr"/>
       <c r="AL109" t="n">
         <v>48246286313.83667</v>
       </c>
@@ -13322,12 +12890,8 @@
       </c>
       <c r="AH110" t="inlineStr"/>
       <c r="AI110" t="inlineStr"/>
-      <c r="AJ110" t="n">
-        <v>40989905059.48804</v>
-      </c>
-      <c r="AK110" t="n">
-        <v>40989905059.48804</v>
-      </c>
+      <c r="AJ110" t="inlineStr"/>
+      <c r="AK110" t="inlineStr"/>
       <c r="AL110" t="n">
         <v>49276209677.41935</v>
       </c>
@@ -13469,12 +13033,8 @@
       </c>
       <c r="AH111" t="inlineStr"/>
       <c r="AI111" t="inlineStr"/>
-      <c r="AJ111" t="n">
-        <v>42887634905.95129</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>42887634905.95129</v>
-      </c>
+      <c r="AJ111" t="inlineStr"/>
+      <c r="AK111" t="inlineStr"/>
       <c r="AL111" t="n">
         <v>49728413654.61847</v>
       </c>
@@ -13616,12 +13176,8 @@
       </c>
       <c r="AH112" t="inlineStr"/>
       <c r="AI112" t="inlineStr"/>
-      <c r="AJ112" t="n">
-        <v>43083395061.72839</v>
-      </c>
-      <c r="AK112" t="n">
-        <v>43083395061.72839</v>
-      </c>
+      <c r="AJ112" t="inlineStr"/>
+      <c r="AK112" t="inlineStr"/>
       <c r="AL112" t="n">
         <v>49231037924.1517</v>
       </c>
@@ -13763,12 +13319,8 @@
       </c>
       <c r="AH113" t="inlineStr"/>
       <c r="AI113" t="inlineStr"/>
-      <c r="AJ113" t="n">
-        <v>42304308252.42719</v>
-      </c>
-      <c r="AK113" t="n">
-        <v>42304308252.42719</v>
-      </c>
+      <c r="AJ113" t="inlineStr"/>
+      <c r="AK113" t="inlineStr"/>
       <c r="AL113" t="n">
         <v>49255848680.93579</v>
       </c>
@@ -13910,12 +13462,8 @@
       </c>
       <c r="AH114" t="inlineStr"/>
       <c r="AI114" t="inlineStr"/>
-      <c r="AJ114" t="n">
-        <v>43249879227.05314</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>43249879227.05314</v>
-      </c>
+      <c r="AJ114" t="inlineStr"/>
+      <c r="AK114" t="inlineStr"/>
       <c r="AL114" t="n">
         <v>49973227565.69162</v>
       </c>
@@ -14057,12 +13605,8 @@
       </c>
       <c r="AH115" t="inlineStr"/>
       <c r="AI115" t="inlineStr"/>
-      <c r="AJ115" t="n">
-        <v>43406696832.57919</v>
-      </c>
-      <c r="AK115" t="n">
-        <v>43406696832.57919</v>
-      </c>
+      <c r="AJ115" t="inlineStr"/>
+      <c r="AK115" t="inlineStr"/>
       <c r="AL115" t="n">
         <v>50623639960.43521</v>
       </c>
@@ -14204,12 +13748,8 @@
       </c>
       <c r="AH116" t="inlineStr"/>
       <c r="AI116" t="inlineStr"/>
-      <c r="AJ116" t="n">
-        <v>44583476658.47666</v>
-      </c>
-      <c r="AK116" t="n">
-        <v>44583476658.47666</v>
-      </c>
+      <c r="AJ116" t="inlineStr"/>
+      <c r="AK116" t="inlineStr"/>
       <c r="AL116" t="n">
         <v>51499261447.56278</v>
       </c>
@@ -14355,12 +13895,8 @@
       </c>
       <c r="AH117" t="inlineStr"/>
       <c r="AI117" t="inlineStr"/>
-      <c r="AJ117" t="n">
-        <v>45177125193.19938</v>
-      </c>
-      <c r="AK117" t="n">
-        <v>45177125193.19938</v>
-      </c>
+      <c r="AJ117" t="inlineStr"/>
+      <c r="AK117" t="inlineStr"/>
       <c r="AL117" t="n">
         <v>52592720118.05214</v>
       </c>
@@ -14506,12 +14042,8 @@
       </c>
       <c r="AH118" t="inlineStr"/>
       <c r="AI118" t="inlineStr"/>
-      <c r="AJ118" t="n">
-        <v>45883286821.70543</v>
-      </c>
-      <c r="AK118" t="n">
-        <v>45883286821.70543</v>
-      </c>
+      <c r="AJ118" t="inlineStr"/>
+      <c r="AK118" t="inlineStr"/>
       <c r="AL118" t="n">
         <v>53104382077.7942</v>
       </c>
@@ -14657,12 +14189,8 @@
       </c>
       <c r="AH119" t="inlineStr"/>
       <c r="AI119" t="inlineStr"/>
-      <c r="AJ119" t="n">
-        <v>46519361901.78292</v>
-      </c>
-      <c r="AK119" t="n">
-        <v>46519361901.78292</v>
-      </c>
+      <c r="AJ119" t="inlineStr"/>
+      <c r="AK119" t="inlineStr"/>
       <c r="AL119" t="n">
         <v>54281073098.69554</v>
       </c>
@@ -14808,12 +14336,8 @@
       </c>
       <c r="AH120" t="inlineStr"/>
       <c r="AI120" t="inlineStr"/>
-      <c r="AJ120" t="n">
-        <v>46936329352.60843</v>
-      </c>
-      <c r="AK120" t="n">
-        <v>46936329352.60843</v>
-      </c>
+      <c r="AJ120" t="inlineStr"/>
+      <c r="AK120" t="inlineStr"/>
       <c r="AL120" t="n">
         <v>55685475956.82041</v>
       </c>
@@ -14959,12 +14483,8 @@
       </c>
       <c r="AH121" t="inlineStr"/>
       <c r="AI121" t="inlineStr"/>
-      <c r="AJ121" t="n">
-        <v>46338043813.63776</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>46338043813.63776</v>
-      </c>
+      <c r="AJ121" t="inlineStr"/>
+      <c r="AK121" t="inlineStr"/>
       <c r="AL121" t="n">
         <v>56826203862.13639</v>
       </c>
@@ -15110,12 +14630,8 @@
       </c>
       <c r="AH122" t="inlineStr"/>
       <c r="AI122" t="inlineStr"/>
-      <c r="AJ122" t="n">
-        <v>45816977099.23664</v>
-      </c>
-      <c r="AK122" t="n">
-        <v>45816977099.23664</v>
-      </c>
+      <c r="AJ122" t="inlineStr"/>
+      <c r="AK122" t="inlineStr"/>
       <c r="AL122" t="n">
         <v>57411337209.30232</v>
       </c>
@@ -15261,12 +14777,8 @@
       </c>
       <c r="AH123" t="inlineStr"/>
       <c r="AI123" t="inlineStr"/>
-      <c r="AJ123" t="n">
-        <v>46167469365.35999</v>
-      </c>
-      <c r="AK123" t="n">
-        <v>46167469365.35999</v>
-      </c>
+      <c r="AJ123" t="inlineStr"/>
+      <c r="AK123" t="inlineStr"/>
       <c r="AL123" t="n">
         <v>57583071342.20073</v>
       </c>
@@ -15416,12 +14928,8 @@
       <c r="AI124" t="n">
         <v>46363781837.57834</v>
       </c>
-      <c r="AJ124" t="n">
-        <v>45573617021.2766</v>
-      </c>
-      <c r="AK124" t="n">
-        <v>45573617021.2766</v>
-      </c>
+      <c r="AJ124" t="inlineStr"/>
+      <c r="AK124" t="inlineStr"/>
       <c r="AL124" t="n">
         <v>57699757869.2494</v>
       </c>
@@ -15571,12 +15079,8 @@
       <c r="AI125" t="n">
         <v>46958794505.93412</v>
       </c>
-      <c r="AJ125" t="n">
-        <v>45335683890.57751</v>
-      </c>
-      <c r="AK125" t="n">
-        <v>45335683890.57751</v>
-      </c>
+      <c r="AJ125" t="inlineStr"/>
+      <c r="AK125" t="inlineStr"/>
       <c r="AL125" t="n">
         <v>58598451862.60281</v>
       </c>
@@ -15726,12 +15230,8 @@
       <c r="AI126" t="n">
         <v>47406054140.55207</v>
       </c>
-      <c r="AJ126" t="n">
-        <v>46210067114.09396</v>
-      </c>
-      <c r="AK126" t="n">
-        <v>46210067114.09396</v>
-      </c>
+      <c r="AJ126" t="inlineStr"/>
+      <c r="AK126" t="inlineStr"/>
       <c r="AL126" t="n">
         <v>59469338483.82423</v>
       </c>
@@ -15881,12 +15381,8 @@
       <c r="AI127" t="n">
         <v>47548473129.75063</v>
       </c>
-      <c r="AJ127" t="n">
-        <v>47129138251.7049</v>
-      </c>
-      <c r="AK127" t="n">
-        <v>47129138251.7049</v>
-      </c>
+      <c r="AJ127" t="inlineStr"/>
+      <c r="AK127" t="inlineStr"/>
       <c r="AL127" t="n">
         <v>59095936523.20269</v>
       </c>
@@ -16036,12 +15532,8 @@
       <c r="AI128" t="n">
         <v>48311774903.32044</v>
       </c>
-      <c r="AJ128" t="n">
-        <v>48012157107.23191</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>48012157107.23191</v>
-      </c>
+      <c r="AJ128" t="inlineStr"/>
+      <c r="AK128" t="inlineStr"/>
       <c r="AL128" t="n">
         <v>59310082536.86108</v>
       </c>
@@ -16191,12 +15683,8 @@
       <c r="AI129" t="n">
         <v>48901866666.66666</v>
       </c>
-      <c r="AJ129" t="n">
-        <v>47080947983.99508</v>
-      </c>
-      <c r="AK129" t="n">
-        <v>47080947983.99508</v>
-      </c>
+      <c r="AJ129" t="inlineStr"/>
+      <c r="AK129" t="inlineStr"/>
       <c r="AL129" t="n">
         <v>59851603638.10435</v>
       </c>
@@ -16346,12 +15834,8 @@
       <c r="AI130" t="n">
         <v>48731200000</v>
       </c>
-      <c r="AJ130" t="n">
-        <v>47318392581.14374</v>
-      </c>
-      <c r="AK130" t="n">
-        <v>47318392581.14374</v>
-      </c>
+      <c r="AJ130" t="inlineStr"/>
+      <c r="AK130" t="inlineStr"/>
       <c r="AL130" t="n">
         <v>60854961832.06107</v>
       </c>
@@ -16501,12 +15985,8 @@
       <c r="AI131" t="n">
         <v>48094641428.95229</v>
       </c>
-      <c r="AJ131" t="n">
-        <v>48289301514.11303</v>
-      </c>
-      <c r="AK131" t="n">
-        <v>48289301514.11303</v>
-      </c>
+      <c r="AJ131" t="inlineStr"/>
+      <c r="AK131" t="inlineStr"/>
       <c r="AL131" t="n">
         <v>63198382492.86395</v>
       </c>
@@ -16656,12 +16136,8 @@
       <c r="AI132" t="n">
         <v>47260533333.33334</v>
       </c>
-      <c r="AJ132" t="n">
-        <v>49706012658.22784</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>49706012658.22784</v>
-      </c>
+      <c r="AJ132" t="inlineStr"/>
+      <c r="AK132" t="inlineStr"/>
       <c r="AL132" t="n">
         <v>64932795060.55569</v>
       </c>
@@ -16811,12 +16287,8 @@
       <c r="AI133" t="n">
         <v>46229333333.33334</v>
       </c>
-      <c r="AJ133" t="n">
-        <v>51328135806.3502</v>
-      </c>
-      <c r="AK133" t="n">
-        <v>51328135806.3502</v>
-      </c>
+      <c r="AJ133" t="inlineStr"/>
+      <c r="AK133" t="inlineStr"/>
       <c r="AL133" t="n">
         <v>65989719049.98289</v>
       </c>
@@ -16966,12 +16438,8 @@
       <c r="AI134" t="n">
         <v>45554696868.75417</v>
       </c>
-      <c r="AJ134" t="n">
-        <v>50672000000</v>
-      </c>
-      <c r="AK134" t="n">
-        <v>50672000000</v>
-      </c>
+      <c r="AJ134" t="inlineStr"/>
+      <c r="AK134" t="inlineStr"/>
       <c r="AL134" t="n">
         <v>67290922224.21161</v>
       </c>
@@ -17121,12 +16589,8 @@
       <c r="AI135" t="n">
         <v>45141905396.4024</v>
       </c>
-      <c r="AJ135" t="n">
-        <v>51044313238.03605</v>
-      </c>
-      <c r="AK135" t="n">
-        <v>51044313238.03605</v>
-      </c>
+      <c r="AJ135" t="inlineStr"/>
+      <c r="AK135" t="inlineStr"/>
       <c r="AL135" t="n">
         <v>68965045172.20688</v>
       </c>
@@ -17280,12 +16744,8 @@
       <c r="AI136" t="n">
         <v>45740034662.04506</v>
       </c>
-      <c r="AJ136" t="n">
-        <v>51115814596.15626</v>
-      </c>
-      <c r="AK136" t="n">
-        <v>51115814596.15626</v>
-      </c>
+      <c r="AJ136" t="inlineStr"/>
+      <c r="AK136" t="inlineStr"/>
       <c r="AL136" t="n">
         <v>69465300393.33897</v>
       </c>
@@ -17439,12 +16899,8 @@
       <c r="AI137" t="n">
         <v>47285600000</v>
       </c>
-      <c r="AJ137" t="n">
-        <v>51311757269.2794</v>
-      </c>
-      <c r="AK137" t="n">
-        <v>51311757269.2794</v>
-      </c>
+      <c r="AJ137" t="inlineStr"/>
+      <c r="AK137" t="inlineStr"/>
       <c r="AL137" t="n">
         <v>70538433225.12546</v>
       </c>
@@ -17598,12 +17054,8 @@
       <c r="AI138" t="n">
         <v>46386400000</v>
       </c>
-      <c r="AJ138" t="n">
-        <v>52435087272.26398</v>
-      </c>
-      <c r="AK138" t="n">
-        <v>52435087272.26398</v>
-      </c>
+      <c r="AJ138" t="inlineStr"/>
+      <c r="AK138" t="inlineStr"/>
       <c r="AL138" t="n">
         <v>69285846867.74942</v>
       </c>
@@ -17757,12 +17209,8 @@
       <c r="AI139" t="n">
         <v>46213866666.66666</v>
       </c>
-      <c r="AJ139" t="n">
-        <v>53481638690.59103</v>
-      </c>
-      <c r="AK139" t="n">
-        <v>53481638690.59103</v>
-      </c>
+      <c r="AJ139" t="inlineStr"/>
+      <c r="AK139" t="inlineStr"/>
       <c r="AL139" t="n">
         <v>69596568513.7955</v>
       </c>
@@ -17916,12 +17364,8 @@
       <c r="AI140" t="n">
         <v>46962666666.66666</v>
       </c>
-      <c r="AJ140" t="n">
-        <v>55211599869.66439</v>
-      </c>
-      <c r="AK140" t="n">
-        <v>55211599869.66439</v>
-      </c>
+      <c r="AJ140" t="inlineStr"/>
+      <c r="AK140" t="inlineStr"/>
       <c r="AL140" t="n">
         <v>69707052677.10719</v>
       </c>
@@ -18075,12 +17519,8 @@
       <c r="AI141" t="n">
         <v>46869583766.632</v>
       </c>
-      <c r="AJ141" t="n">
-        <v>56207226703.39039</v>
-      </c>
-      <c r="AK141" t="n">
-        <v>56207226703.39039</v>
-      </c>
+      <c r="AJ141" t="inlineStr"/>
+      <c r="AK141" t="inlineStr"/>
       <c r="AL141" t="n">
         <v>70419815668.20276</v>
       </c>
@@ -18234,12 +17674,8 @@
       <c r="AI142" t="n">
         <v>46729866666.66666</v>
       </c>
-      <c r="AJ142" t="n">
-        <v>57696524329.69216</v>
-      </c>
-      <c r="AK142" t="n">
-        <v>57696524329.69216</v>
-      </c>
+      <c r="AJ142" t="inlineStr"/>
+      <c r="AK142" t="inlineStr"/>
       <c r="AL142" t="n">
         <v>71512425872.31158</v>
       </c>
@@ -18393,12 +17829,8 @@
       <c r="AI143" t="n">
         <v>46228533333.33334</v>
       </c>
-      <c r="AJ143" t="n">
-        <v>58791000000</v>
-      </c>
-      <c r="AK143" t="n">
-        <v>58791000000</v>
-      </c>
+      <c r="AJ143" t="inlineStr"/>
+      <c r="AK143" t="inlineStr"/>
       <c r="AL143" t="n">
         <v>73052717100.39371</v>
       </c>
@@ -18556,12 +17988,8 @@
       <c r="AI144" t="n">
         <v>46304985337.24341</v>
       </c>
-      <c r="AJ144" t="n">
-        <v>60681119352.66352</v>
-      </c>
-      <c r="AK144" t="n">
-        <v>60681119352.66352</v>
-      </c>
+      <c r="AJ144" t="inlineStr"/>
+      <c r="AK144" t="inlineStr"/>
       <c r="AL144" t="n">
         <v>74800787047.90918</v>
       </c>
@@ -18719,12 +18147,8 @@
       <c r="AI145" t="n">
         <v>46917519727.02069</v>
       </c>
-      <c r="AJ145" t="n">
-        <v>61505379272.77679</v>
-      </c>
-      <c r="AK145" t="n">
-        <v>61505379272.77679</v>
-      </c>
+      <c r="AJ145" t="inlineStr"/>
+      <c r="AK145" t="inlineStr"/>
       <c r="AL145" t="n">
         <v>76125002333.21002</v>
       </c>
@@ -18882,12 +18306,8 @@
       <c r="AI146" t="n">
         <v>46967466666.66666</v>
       </c>
-      <c r="AJ146" t="n">
-        <v>62937111642.19871</v>
-      </c>
-      <c r="AK146" t="n">
-        <v>62937111642.19871</v>
-      </c>
+      <c r="AJ146" t="inlineStr"/>
+      <c r="AK146" t="inlineStr"/>
       <c r="AL146" t="n">
         <v>77286327206.56261</v>
       </c>
@@ -19045,12 +18465,8 @@
       <c r="AI147" t="n">
         <v>47203945614.50281</v>
       </c>
-      <c r="AJ147" t="n">
-        <v>64462994718.43062</v>
-      </c>
-      <c r="AK147" t="n">
-        <v>64462994718.43062</v>
-      </c>
+      <c r="AJ147" t="inlineStr"/>
+      <c r="AK147" t="inlineStr"/>
       <c r="AL147" t="n">
         <v>79395814376.7061</v>
       </c>
@@ -19208,12 +18624,8 @@
       <c r="AI148" t="n">
         <v>46905663395.90443</v>
       </c>
-      <c r="AJ148" t="n">
-        <v>65489306099.99313</v>
-      </c>
-      <c r="AK148" t="n">
-        <v>65489306099.99313</v>
-      </c>
+      <c r="AJ148" t="inlineStr"/>
+      <c r="AK148" t="inlineStr"/>
       <c r="AL148" t="n">
         <v>79488949030.22102</v>
       </c>
@@ -19371,12 +18783,8 @@
       <c r="AI149" t="n">
         <v>48417768771.33105</v>
       </c>
-      <c r="AJ149" t="n">
-        <v>65312003865.53461</v>
-      </c>
-      <c r="AK149" t="n">
-        <v>65312003865.53461</v>
-      </c>
+      <c r="AJ149" t="inlineStr"/>
+      <c r="AK149" t="inlineStr"/>
       <c r="AL149" t="n">
         <v>81113918339.72479</v>
       </c>
@@ -19534,12 +18942,8 @@
       <c r="AI150" t="n">
         <v>48929799770.70947</v>
       </c>
-      <c r="AJ150" t="n">
-        <v>67051349245.6973</v>
-      </c>
-      <c r="AK150" t="n">
-        <v>67051349245.6973</v>
-      </c>
+      <c r="AJ150" t="inlineStr"/>
+      <c r="AK150" t="inlineStr"/>
       <c r="AL150" t="n">
         <v>81189008042.89545</v>
       </c>
@@ -19697,12 +19101,8 @@
       <c r="AI151" t="n">
         <v>49321441902.62891</v>
       </c>
-      <c r="AJ151" t="n">
-        <v>68687302725.96844</v>
-      </c>
-      <c r="AK151" t="n">
-        <v>68687302725.96844</v>
-      </c>
+      <c r="AJ151" t="inlineStr"/>
+      <c r="AK151" t="inlineStr"/>
       <c r="AL151" t="n">
         <v>81834751455.44112</v>
       </c>
@@ -19860,12 +19260,8 @@
       <c r="AI152" t="n">
         <v>49850161303.2234</v>
       </c>
-      <c r="AJ152" t="n">
-        <v>70065976714.10091</v>
-      </c>
-      <c r="AK152" t="n">
-        <v>70065976714.10091</v>
-      </c>
+      <c r="AJ152" t="inlineStr"/>
+      <c r="AK152" t="inlineStr"/>
       <c r="AL152" t="n">
         <v>83163709858.52235</v>
       </c>
@@ -20023,12 +19419,8 @@
       <c r="AI153" t="n">
         <v>49914413693.80899</v>
       </c>
-      <c r="AJ153" t="n">
-        <v>70159936998.85452</v>
-      </c>
-      <c r="AK153" t="n">
-        <v>70159936998.85452</v>
-      </c>
+      <c r="AJ153" t="inlineStr"/>
+      <c r="AK153" t="inlineStr"/>
       <c r="AL153" t="n">
         <v>86271216883.70004</v>
       </c>
@@ -20186,12 +19578,8 @@
       <c r="AI154" t="n">
         <v>49097962883.95905</v>
       </c>
-      <c r="AJ154" t="n">
-        <v>69452517572.80159</v>
-      </c>
-      <c r="AK154" t="n">
-        <v>69452517572.80159</v>
-      </c>
+      <c r="AJ154" t="inlineStr"/>
+      <c r="AK154" t="inlineStr"/>
       <c r="AL154" t="n">
         <v>88062639821.02908</v>
       </c>
@@ -20349,12 +19737,8 @@
       <c r="AI155" t="n">
         <v>47672905668.42638</v>
       </c>
-      <c r="AJ155" t="n">
-        <v>68947679740.86333</v>
-      </c>
-      <c r="AK155" t="n">
-        <v>68947679740.86333</v>
-      </c>
+      <c r="AJ155" t="inlineStr"/>
+      <c r="AK155" t="inlineStr"/>
       <c r="AL155" t="n">
         <v>89161703066.40193</v>
       </c>
@@ -20512,12 +19896,8 @@
       <c r="AI156" t="n">
         <v>48712971603.78616</v>
       </c>
-      <c r="AJ156" t="n">
-        <v>69113622008.56201</v>
-      </c>
-      <c r="AK156" t="n">
-        <v>69113622008.56201</v>
-      </c>
+      <c r="AJ156" t="inlineStr"/>
+      <c r="AK156" t="inlineStr"/>
       <c r="AL156" t="n">
         <v>90964025601.41249</v>
       </c>
@@ -20675,12 +20055,8 @@
       <c r="AI157" t="n">
         <v>48542099930.67776</v>
       </c>
-      <c r="AJ157" t="n">
-        <v>69637745721.96295</v>
-      </c>
-      <c r="AK157" t="n">
-        <v>69637745721.96295</v>
-      </c>
+      <c r="AJ157" t="inlineStr"/>
+      <c r="AK157" t="inlineStr"/>
       <c r="AL157" t="n">
         <v>92975781594.01144</v>
       </c>
@@ -20838,12 +20214,8 @@
       <c r="AI158" t="n">
         <v>49043886311.52349</v>
       </c>
-      <c r="AJ158" t="n">
-        <v>71081278344.6712</v>
-      </c>
-      <c r="AK158" t="n">
-        <v>71081278344.6712</v>
-      </c>
+      <c r="AJ158" t="inlineStr"/>
+      <c r="AK158" t="inlineStr"/>
       <c r="AL158" t="n">
         <v>94498795708.34247</v>
       </c>
@@ -21001,12 +20373,8 @@
       <c r="AI159" t="n">
         <v>49511798426.87642</v>
       </c>
-      <c r="AJ159" t="n">
-        <v>72097362652.9025</v>
-      </c>
-      <c r="AK159" t="n">
-        <v>72097362652.9025</v>
-      </c>
+      <c r="AJ159" t="inlineStr"/>
+      <c r="AK159" t="inlineStr"/>
       <c r="AL159" t="n">
         <v>97660179313.36104</v>
       </c>
@@ -21168,12 +20536,8 @@
       <c r="AI160" t="n">
         <v>49794955204.77816</v>
       </c>
-      <c r="AJ160" t="n">
-        <v>71702965415.22858</v>
-      </c>
-      <c r="AK160" t="n">
-        <v>71702965415.22858</v>
-      </c>
+      <c r="AJ160" t="inlineStr"/>
+      <c r="AK160" t="inlineStr"/>
       <c r="AL160" t="n">
         <v>97236038394.41536</v>
       </c>
@@ -21335,12 +20699,8 @@
       <c r="AI161" t="n">
         <v>50213843856.65529</v>
       </c>
-      <c r="AJ161" t="n">
-        <v>72742387763.77284</v>
-      </c>
-      <c r="AK161" t="n">
-        <v>72742387763.77284</v>
-      </c>
+      <c r="AJ161" t="inlineStr"/>
+      <c r="AK161" t="inlineStr"/>
       <c r="AL161" t="n">
         <v>98401899417.22426</v>
       </c>
@@ -21502,12 +20862,8 @@
       <c r="AI162" t="n">
         <v>50658596416.38226</v>
       </c>
-      <c r="AJ162" t="n">
-        <v>74327276598.765</v>
-      </c>
-      <c r="AK162" t="n">
-        <v>74327276598.765</v>
-      </c>
+      <c r="AJ162" t="inlineStr"/>
+      <c r="AK162" t="inlineStr"/>
       <c r="AL162" t="n">
         <v>99440975192.4722</v>
       </c>
@@ -21669,12 +21025,8 @@
       <c r="AI163" t="n">
         <v>52317824290.09466</v>
       </c>
-      <c r="AJ163" t="n">
-        <v>75257752489.33145</v>
-      </c>
-      <c r="AK163" t="n">
-        <v>75257752489.33145</v>
-      </c>
+      <c r="AJ163" t="inlineStr"/>
+      <c r="AK163" t="inlineStr"/>
       <c r="AL163" t="n">
         <v>102213442130.1267</v>
       </c>
@@ -21836,12 +21188,8 @@
       <c r="AI164" t="n">
         <v>51966137848.2869</v>
       </c>
-      <c r="AJ164" t="n">
-        <v>75992108069.6765</v>
-      </c>
-      <c r="AK164" t="n">
-        <v>75992108069.6765</v>
-      </c>
+      <c r="AJ164" t="inlineStr"/>
+      <c r="AK164" t="inlineStr"/>
       <c r="AL164" t="n">
         <v>103816934619.507</v>
       </c>
@@ -22003,12 +21351,8 @@
       <c r="AI165" t="n">
         <v>51804244654.18867</v>
       </c>
-      <c r="AJ165" t="n">
-        <v>76330829199.14954</v>
-      </c>
-      <c r="AK165" t="n">
-        <v>76330829199.14954</v>
-      </c>
+      <c r="AJ165" t="inlineStr"/>
+      <c r="AK165" t="inlineStr"/>
       <c r="AL165" t="n">
         <v>107218138835.1601</v>
       </c>
@@ -22170,12 +21514,8 @@
       <c r="AI166" t="n">
         <v>51513131582.45567</v>
       </c>
-      <c r="AJ166" t="n">
-        <v>77030723488.60257</v>
-      </c>
-      <c r="AK166" t="n">
-        <v>77030723488.60257</v>
-      </c>
+      <c r="AJ166" t="inlineStr"/>
+      <c r="AK166" t="inlineStr"/>
       <c r="AL166" t="n">
         <v>107711795961.7428</v>
       </c>
@@ -22337,12 +21677,8 @@
       <c r="AI167" t="n">
         <v>51862418344.22077</v>
       </c>
-      <c r="AJ167" t="n">
-        <v>77577177390.6861</v>
-      </c>
-      <c r="AK167" t="n">
-        <v>77577177390.6861</v>
-      </c>
+      <c r="AJ167" t="inlineStr"/>
+      <c r="AK167" t="inlineStr"/>
       <c r="AL167" t="n">
         <v>109002561912.895</v>
       </c>
@@ -22504,12 +21840,8 @@
       <c r="AI168" t="n">
         <v>51819490734.56873</v>
       </c>
-      <c r="AJ168" t="n">
-        <v>77700504368.82858</v>
-      </c>
-      <c r="AK168" t="n">
-        <v>77700504368.82858</v>
-      </c>
+      <c r="AJ168" t="inlineStr"/>
+      <c r="AK168" t="inlineStr"/>
       <c r="AL168" t="n">
         <v>111902012457.3036</v>
       </c>
@@ -22671,12 +22003,8 @@
       <c r="AI169" t="n">
         <v>51923210238.63485</v>
       </c>
-      <c r="AJ169" t="n">
-        <v>77070542360.86493</v>
-      </c>
-      <c r="AK169" t="n">
-        <v>77070542360.86493</v>
-      </c>
+      <c r="AJ169" t="inlineStr"/>
+      <c r="AK169" t="inlineStr"/>
       <c r="AL169" t="n">
         <v>115193403329.372</v>
       </c>
@@ -22842,12 +22170,8 @@
       <c r="AI170" t="n">
         <v>52499666711.10519</v>
       </c>
-      <c r="AJ170" t="n">
-        <v>79009331148.94223</v>
-      </c>
-      <c r="AK170" t="n">
-        <v>79009331148.94223</v>
-      </c>
+      <c r="AJ170" t="inlineStr"/>
+      <c r="AK170" t="inlineStr"/>
       <c r="AL170" t="n">
         <v>118275479744.1365</v>
       </c>
@@ -22914,9 +22238,7 @@
         <v>35400</v>
       </c>
       <c r="B171" t="inlineStr"/>
-      <c r="C171" t="n">
-        <v>18638053578089.54</v>
-      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
         <v>913679698381.4418</v>
       </c>
@@ -23013,12 +22335,8 @@
       <c r="AI171" t="n">
         <v>54398048156.14751</v>
       </c>
-      <c r="AJ171" t="n">
-        <v>80010577472.84163</v>
-      </c>
-      <c r="AK171" t="n">
-        <v>80010577472.84163</v>
-      </c>
+      <c r="AJ171" t="inlineStr"/>
+      <c r="AK171" t="inlineStr"/>
       <c r="AL171" t="n">
         <v>122198137171.8882</v>
       </c>
@@ -23089,9 +22407,7 @@
         <v>35431</v>
       </c>
       <c r="B172" t="inlineStr"/>
-      <c r="C172" t="n">
-        <v>18026874158578.61</v>
-      </c>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
         <v>941099790950.8134</v>
       </c>
@@ -23188,12 +22504,8 @@
       <c r="AI172" t="n">
         <v>56348922781.56997</v>
       </c>
-      <c r="AJ172" t="n">
-        <v>80329946714.03197</v>
-      </c>
-      <c r="AK172" t="n">
-        <v>80329946714.03197</v>
-      </c>
+      <c r="AJ172" t="inlineStr"/>
+      <c r="AK172" t="inlineStr"/>
       <c r="AL172" t="n">
         <v>122387123921.7336</v>
       </c>
@@ -23264,9 +22576,7 @@
         <v>35462</v>
       </c>
       <c r="B173" t="inlineStr"/>
-      <c r="C173" t="n">
-        <v>17975541915563.13</v>
-      </c>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
         <v>945068104835.8036</v>
       </c>
@@ -23363,12 +22673,8 @@
       <c r="AI173" t="n">
         <v>55082531132.50314</v>
       </c>
-      <c r="AJ173" t="n">
-        <v>79751754139.76987</v>
-      </c>
-      <c r="AK173" t="n">
-        <v>79751754139.76987</v>
-      </c>
+      <c r="AJ173" t="inlineStr"/>
+      <c r="AK173" t="inlineStr"/>
       <c r="AL173" t="n">
         <v>122361777592.3221</v>
       </c>
@@ -23439,9 +22745,7 @@
         <v>35490</v>
       </c>
       <c r="B174" t="inlineStr"/>
-      <c r="C174" t="n">
-        <v>18001808520765.87</v>
-      </c>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
         <v>957729866074.1096</v>
       </c>
@@ -23538,12 +22842,8 @@
       <c r="AI174" t="n">
         <v>56816691107.85229</v>
       </c>
-      <c r="AJ174" t="n">
-        <v>80993010380.62283</v>
-      </c>
-      <c r="AK174" t="n">
-        <v>80993010380.62283</v>
-      </c>
+      <c r="AJ174" t="inlineStr"/>
+      <c r="AK174" t="inlineStr"/>
       <c r="AL174" t="n">
         <v>122690962099.1254</v>
       </c>
@@ -23614,9 +22914,7 @@
         <v>35521</v>
       </c>
       <c r="B175" t="inlineStr"/>
-      <c r="C175" t="n">
-        <v>17850393922953.33</v>
-      </c>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
         <v>969175325845.396</v>
       </c>
@@ -23713,12 +23011,8 @@
       <c r="AI175" t="n">
         <v>56459138781.4958</v>
       </c>
-      <c r="AJ175" t="n">
-        <v>81702418797.5121</v>
-      </c>
-      <c r="AK175" t="n">
-        <v>81702418797.5121</v>
-      </c>
+      <c r="AJ175" t="inlineStr"/>
+      <c r="AK175" t="inlineStr"/>
       <c r="AL175" t="n">
         <v>123159259259.2593</v>
       </c>
@@ -23789,9 +23083,7 @@
         <v>35551</v>
       </c>
       <c r="B176" t="inlineStr"/>
-      <c r="C176" t="n">
-        <v>18387927612375.93</v>
-      </c>
+      <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
         <v>975337955564.1002</v>
       </c>
@@ -23888,12 +23180,8 @@
       <c r="AI176" t="n">
         <v>56960486322.18845</v>
       </c>
-      <c r="AJ176" t="n">
-        <v>83139271481.50737</v>
-      </c>
-      <c r="AK176" t="n">
-        <v>83139271481.50737</v>
-      </c>
+      <c r="AJ176" t="inlineStr"/>
+      <c r="AK176" t="inlineStr"/>
       <c r="AL176" t="n">
         <v>124786110540.3739</v>
       </c>
@@ -23964,9 +23252,7 @@
         <v>35582</v>
       </c>
       <c r="B177" t="inlineStr"/>
-      <c r="C177" t="n">
-        <v>18583484279535.09</v>
-      </c>
+      <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
         <v>995246794139.9161</v>
       </c>
@@ -24063,12 +23349,8 @@
       <c r="AI177" t="n">
         <v>57021009971.73785</v>
       </c>
-      <c r="AJ177" t="n">
-        <v>83337088873.338</v>
-      </c>
-      <c r="AK177" t="n">
-        <v>83337088873.338</v>
-      </c>
+      <c r="AJ177" t="inlineStr"/>
+      <c r="AK177" t="inlineStr"/>
       <c r="AL177" t="n">
         <v>128660908903.9687</v>
       </c>
@@ -24139,9 +23421,7 @@
         <v>35612</v>
       </c>
       <c r="B178" t="inlineStr"/>
-      <c r="C178" t="n">
-        <v>18256237561466.56</v>
-      </c>
+      <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
         <v>1006579185411.214</v>
       </c>
@@ -24238,12 +23518,8 @@
       <c r="AI178" t="n">
         <v>56825041326.72106</v>
       </c>
-      <c r="AJ178" t="n">
-        <v>81512133777.44545</v>
-      </c>
-      <c r="AK178" t="n">
-        <v>81512133777.44545</v>
-      </c>
+      <c r="AJ178" t="inlineStr"/>
+      <c r="AK178" t="inlineStr"/>
       <c r="AL178" t="n">
         <v>121427533460.8031</v>
       </c>
@@ -24314,9 +23590,7 @@
         <v>35643</v>
       </c>
       <c r="B179" t="inlineStr"/>
-      <c r="C179" t="n">
-        <v>18247310724136.64</v>
-      </c>
+      <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
         <v>1022463925486.222</v>
       </c>
@@ -24413,12 +23687,8 @@
       <c r="AI179" t="n">
         <v>56513798160.2453</v>
       </c>
-      <c r="AJ179" t="n">
-        <v>79618518518.51852</v>
-      </c>
-      <c r="AK179" t="n">
-        <v>79618518518.51852</v>
-      </c>
+      <c r="AJ179" t="inlineStr"/>
+      <c r="AK179" t="inlineStr"/>
       <c r="AL179" t="n">
         <v>111042930153.322</v>
       </c>
@@ -24489,9 +23759,7 @@
         <v>35674</v>
       </c>
       <c r="B180" t="inlineStr"/>
-      <c r="C180" t="n">
-        <v>18322104521726.78</v>
-      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
         <v>1032993782246.329</v>
       </c>
@@ -24588,12 +23856,8 @@
       <c r="AI180" t="n">
         <v>56318722337.75929</v>
       </c>
-      <c r="AJ180" t="n">
-        <v>78842762770.6194</v>
-      </c>
-      <c r="AK180" t="n">
-        <v>78842762770.6194</v>
-      </c>
+      <c r="AJ180" t="inlineStr"/>
+      <c r="AK180" t="inlineStr"/>
       <c r="AL180" t="n">
         <v>100634250764.526</v>
       </c>
@@ -24664,9 +23928,7 @@
         <v>35704</v>
       </c>
       <c r="B181" t="inlineStr"/>
-      <c r="C181" t="n">
-        <v>18479152406533.64</v>
-      </c>
+      <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
         <v>1042224601246.181</v>
       </c>
@@ -24763,12 +24025,8 @@
       <c r="AI181" t="n">
         <v>56518447430.15569</v>
       </c>
-      <c r="AJ181" t="n">
-        <v>76773451889.48872</v>
-      </c>
-      <c r="AK181" t="n">
-        <v>76773451889.48872</v>
-      </c>
+      <c r="AJ181" t="inlineStr"/>
+      <c r="AK181" t="inlineStr"/>
       <c r="AL181" t="n">
         <v>94651111111.11111</v>
       </c>
@@ -24839,9 +24097,7 @@
         <v>35735</v>
       </c>
       <c r="B182" t="inlineStr"/>
-      <c r="C182" t="n">
-        <v>18106022999658.15</v>
-      </c>
+      <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
         <v>1054085635891.018</v>
       </c>
@@ -24938,12 +24194,8 @@
       <c r="AI182" t="n">
         <v>57079667253.23948</v>
       </c>
-      <c r="AJ182" t="n">
-        <v>76425078566.93904</v>
-      </c>
-      <c r="AK182" t="n">
-        <v>76425078566.93904</v>
-      </c>
+      <c r="AJ182" t="inlineStr"/>
+      <c r="AK182" t="inlineStr"/>
       <c r="AL182" t="n">
         <v>90316666666.66667</v>
       </c>
@@ -25014,9 +24266,7 @@
         <v>35765</v>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="n">
-        <v>18021290726128.69</v>
-      </c>
+      <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
         <v>1095009626955.475</v>
       </c>
@@ -25113,12 +24363,8 @@
       <c r="AI183" t="n">
         <v>58220189846.41638</v>
       </c>
-      <c r="AJ183" t="n">
-        <v>73369034175.33432</v>
-      </c>
-      <c r="AK183" t="n">
-        <v>73369034175.33432</v>
-      </c>
+      <c r="AJ183" t="inlineStr"/>
+      <c r="AK183" t="inlineStr"/>
       <c r="AL183" t="n">
         <v>64079819819.81982</v>
       </c>
@@ -25189,9 +24435,7 @@
         <v>35796</v>
       </c>
       <c r="B184" t="inlineStr"/>
-      <c r="C184" t="n">
-        <v>18070595732463.23</v>
-      </c>
+      <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
         <v>1109643802647.413</v>
       </c>
@@ -25288,12 +24532,8 @@
       <c r="AI184" t="n">
         <v>59732835621.91708</v>
       </c>
-      <c r="AJ184" t="n">
-        <v>72577071178.52975</v>
-      </c>
-      <c r="AK184" t="n">
-        <v>72577071178.52975</v>
-      </c>
+      <c r="AJ184" t="inlineStr"/>
+      <c r="AK184" t="inlineStr"/>
       <c r="AL184" t="n">
         <v>37558083333.33334</v>
       </c>
@@ -25364,9 +24604,7 @@
         <v>35827</v>
       </c>
       <c r="B185" t="inlineStr"/>
-      <c r="C185" t="n">
-        <v>18260325463889.19</v>
-      </c>
+      <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
         <v>1107385078219.013</v>
       </c>
@@ -25461,12 +24699,8 @@
       <c r="AI185" t="n">
         <v>59256119020.95665</v>
       </c>
-      <c r="AJ185" t="n">
-        <v>77921443998.76581</v>
-      </c>
-      <c r="AK185" t="n">
-        <v>77921443998.76581</v>
-      </c>
+      <c r="AJ185" t="inlineStr"/>
+      <c r="AK185" t="inlineStr"/>
       <c r="AL185" t="n">
         <v>48071620111.73184</v>
       </c>
@@ -25537,9 +24771,7 @@
         <v>35855</v>
       </c>
       <c r="B186" t="inlineStr"/>
-      <c r="C186" t="n">
-        <v>18084794665539.88</v>
-      </c>
+      <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
         <v>1111567632850.242</v>
       </c>
@@ -25636,12 +24868,8 @@
       <c r="AI186" t="n">
         <v>60179190443.17637</v>
       </c>
-      <c r="AJ186" t="n">
-        <v>79337485282.27055</v>
-      </c>
-      <c r="AK186" t="n">
-        <v>79337485282.27055</v>
-      </c>
+      <c r="AJ186" t="inlineStr"/>
+      <c r="AK186" t="inlineStr"/>
       <c r="AL186" t="n">
         <v>52549532710.28037</v>
       </c>
@@ -25712,9 +24940,7 @@
         <v>35886</v>
       </c>
       <c r="B187" t="inlineStr"/>
-      <c r="C187" t="n">
-        <v>18317424099018.39</v>
-      </c>
+      <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
         <v>1115060168471.721</v>
       </c>
@@ -25811,12 +25037,8 @@
       <c r="AI187" t="n">
         <v>60260779137.66899</v>
       </c>
-      <c r="AJ187" t="n">
-        <v>80278752682.74208</v>
-      </c>
-      <c r="AK187" t="n">
-        <v>80278752682.74208</v>
-      </c>
+      <c r="AJ187" t="inlineStr"/>
+      <c r="AK187" t="inlineStr"/>
       <c r="AL187" t="n">
         <v>56148111455.10836</v>
       </c>
@@ -25887,9 +25109,7 @@
         <v>35916</v>
       </c>
       <c r="B188" t="inlineStr"/>
-      <c r="C188" t="n">
-        <v>18111425949422.34</v>
-      </c>
+      <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
         <v>1130398315282.792</v>
       </c>
@@ -25986,12 +25206,8 @@
       <c r="AI188" t="n">
         <v>60002399680.04266</v>
       </c>
-      <c r="AJ188" t="n">
-        <v>76731324582.33891</v>
-      </c>
-      <c r="AK188" t="n">
-        <v>76731324582.33891</v>
-      </c>
+      <c r="AJ188" t="inlineStr"/>
+      <c r="AK188" t="inlineStr"/>
       <c r="AL188" t="n">
         <v>43903022222.22222</v>
       </c>
@@ -26062,9 +25278,7 @@
         <v>35947</v>
       </c>
       <c r="B189" t="inlineStr"/>
-      <c r="C189" t="n">
-        <v>18126282750321.31</v>
-      </c>
+      <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
         <v>1139080625752.106</v>
       </c>
@@ -26161,12 +25375,8 @@
       <c r="AI189" t="n">
         <v>60829956275.99445</v>
       </c>
-      <c r="AJ189" t="n">
-        <v>76385048946.90002</v>
-      </c>
-      <c r="AK189" t="n">
-        <v>76385048946.90002</v>
-      </c>
+      <c r="AJ189" t="inlineStr"/>
+      <c r="AK189" t="inlineStr"/>
       <c r="AL189" t="n">
         <v>37469205298.01324</v>
       </c>
@@ -26237,9 +25447,7 @@
         <v>35977</v>
       </c>
       <c r="B190" t="inlineStr"/>
-      <c r="C190" t="n">
-        <v>18140585072541.16</v>
-      </c>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
         <v>1159012033694.344</v>
       </c>
@@ -26336,12 +25544,8 @@
       <c r="AI190" t="n">
         <v>59155068522.36976</v>
       </c>
-      <c r="AJ190" t="n">
-        <v>75972056696.55771</v>
-      </c>
-      <c r="AK190" t="n">
-        <v>75972056696.55771</v>
-      </c>
+      <c r="AJ190" t="inlineStr"/>
+      <c r="AK190" t="inlineStr"/>
       <c r="AL190" t="n">
         <v>42484885496.1832</v>
       </c>
@@ -26412,9 +25616,7 @@
         <v>36008</v>
       </c>
       <c r="B191" t="inlineStr"/>
-      <c r="C191" t="n">
-        <v>18360136708271.68</v>
-      </c>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
         <v>1170862815884.477</v>
       </c>
@@ -26511,12 +25713,8 @@
       <c r="AI191" t="n">
         <v>58546865003.19898</v>
       </c>
-      <c r="AJ191" t="n">
-        <v>74091713641.48816</v>
-      </c>
-      <c r="AK191" t="n">
-        <v>74091713641.48816</v>
-      </c>
+      <c r="AJ191" t="inlineStr"/>
+      <c r="AK191" t="inlineStr"/>
       <c r="AL191" t="n">
         <v>47031391304.34783</v>
       </c>
@@ -26587,9 +25785,7 @@
         <v>36039</v>
       </c>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="n">
-        <v>18790407314695.34</v>
-      </c>
+      <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
         <v>1205538777482.484</v>
       </c>
@@ -26686,12 +25882,8 @@
       <c r="AI192" t="n">
         <v>57947849734.71619</v>
       </c>
-      <c r="AJ192" t="n">
-        <v>78462089375.55489</v>
-      </c>
-      <c r="AK192" t="n">
-        <v>78462089375.55489</v>
-      </c>
+      <c r="AJ192" t="inlineStr"/>
+      <c r="AK192" t="inlineStr"/>
       <c r="AL192" t="n">
         <v>50728479262.67281</v>
       </c>
@@ -26762,9 +25954,7 @@
         <v>36069</v>
       </c>
       <c r="B193" t="inlineStr"/>
-      <c r="C193" t="n">
-        <v>19831657966649.56</v>
-      </c>
+      <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
         <v>1218620889608.35</v>
       </c>
@@ -26861,12 +26051,8 @@
       <c r="AI193" t="n">
         <v>57810366894.19795</v>
       </c>
-      <c r="AJ193" t="n">
-        <v>81579352850.53929</v>
-      </c>
-      <c r="AK193" t="n">
-        <v>81579352850.53929</v>
-      </c>
+      <c r="AJ193" t="inlineStr"/>
+      <c r="AK193" t="inlineStr"/>
       <c r="AL193" t="n">
         <v>69539477124.18301</v>
       </c>
@@ -26937,9 +26123,7 @@
         <v>36100</v>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="n">
-        <v>19564741772741.77</v>
-      </c>
+      <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
         <v>1234918218936.484</v>
       </c>
@@ -27036,12 +26220,8 @@
       <c r="AI194" t="n">
         <v>58112734641.63822</v>
       </c>
-      <c r="AJ194" t="n">
-        <v>95401481571.43726</v>
-      </c>
-      <c r="AK194" t="n">
-        <v>95401481571.43726</v>
-      </c>
+      <c r="AJ194" t="inlineStr"/>
+      <c r="AK194" t="inlineStr"/>
       <c r="AL194" t="n">
         <v>74450810810.81081</v>
       </c>
@@ -27112,9 +26292,7 @@
         <v>36130</v>
       </c>
       <c r="B195" t="inlineStr"/>
-      <c r="C195" t="n">
-        <v>20303754849041.41</v>
-      </c>
+      <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
         <v>1262232905337.666</v>
       </c>
@@ -27211,12 +26389,8 @@
       <c r="AI195" t="n">
         <v>59631614021.05824</v>
       </c>
-      <c r="AJ195" t="n">
-        <v>97415268100.57558</v>
-      </c>
-      <c r="AK195" t="n">
-        <v>97415268100.57558</v>
-      </c>
+      <c r="AJ195" t="inlineStr"/>
+      <c r="AK195" t="inlineStr"/>
       <c r="AL195" t="n">
         <v>72172625000</v>
       </c>
@@ -27287,9 +26461,7 @@
         <v>36161</v>
       </c>
       <c r="B196" t="inlineStr"/>
-      <c r="C196" t="n">
-        <v>20107000937972.41</v>
-      </c>
+      <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
         <v>1274493222836.986</v>
       </c>
@@ -27386,12 +26558,8 @@
       <c r="AI196" t="n">
         <v>59838146281.63081</v>
       </c>
-      <c r="AJ196" t="n">
-        <v>96387627017.33412</v>
-      </c>
-      <c r="AK196" t="n">
-        <v>96387627017.33412</v>
-      </c>
+      <c r="AJ196" t="inlineStr"/>
+      <c r="AK196" t="inlineStr"/>
       <c r="AL196" t="n">
         <v>68567931034.48276</v>
       </c>
@@ -27462,9 +26630,7 @@
         <v>36192</v>
       </c>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="n">
-        <v>19748025265648.29</v>
-      </c>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
         <v>1301996883267.495</v>
       </c>
@@ -27561,12 +26727,8 @@
       <c r="AI197" t="n">
         <v>60362904300.98926</v>
       </c>
-      <c r="AJ197" t="n">
-        <v>94172590011.6144</v>
-      </c>
-      <c r="AK197" t="n">
-        <v>94172590011.6144</v>
-      </c>
+      <c r="AJ197" t="inlineStr"/>
+      <c r="AK197" t="inlineStr"/>
       <c r="AL197" t="n">
         <v>68970702677.95834</v>
       </c>
@@ -27637,9 +26799,7 @@
         <v>36220</v>
       </c>
       <c r="B198" t="inlineStr"/>
-      <c r="C198" t="n">
-        <v>19814939830937.72</v>
-      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
         <v>1309637681159.42</v>
       </c>
@@ -27736,12 +26896,8 @@
       <c r="AI198" t="n">
         <v>61516945311.04179</v>
       </c>
-      <c r="AJ198" t="n">
-        <v>94721077012.15982</v>
-      </c>
-      <c r="AK198" t="n">
-        <v>94721077012.15982</v>
-      </c>
+      <c r="AJ198" t="inlineStr"/>
+      <c r="AK198" t="inlineStr"/>
       <c r="AL198" t="n">
         <v>70154069767.44186</v>
       </c>
@@ -27812,9 +26968,7 @@
         <v>36251</v>
       </c>
       <c r="B199" t="inlineStr"/>
-      <c r="C199" t="n">
-        <v>19888033176937.8</v>
-      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
         <v>1319312910707.383</v>
       </c>
@@ -27911,12 +27065,8 @@
       <c r="AI199" t="n">
         <v>61420762113.01032</v>
       </c>
-      <c r="AJ199" t="n">
-        <v>96791142218.56253</v>
-      </c>
-      <c r="AK199" t="n">
-        <v>96791142218.56253</v>
-      </c>
+      <c r="AJ199" t="inlineStr"/>
+      <c r="AK199" t="inlineStr"/>
       <c r="AL199" t="n">
         <v>75231901840.4908</v>
       </c>
@@ -27987,9 +27137,7 @@
         <v>36281</v>
       </c>
       <c r="B200" t="inlineStr"/>
-      <c r="C200" t="n">
-        <v>19796159967905.25</v>
-      </c>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
         <v>1329431801710.393</v>
       </c>
@@ -28086,12 +27234,8 @@
       <c r="AI200" t="n">
         <v>60961471803.7595</v>
       </c>
-      <c r="AJ200" t="n">
-        <v>96626709154.11356</v>
-      </c>
-      <c r="AK200" t="n">
-        <v>96626709154.11356</v>
-      </c>
+      <c r="AJ200" t="inlineStr"/>
+      <c r="AK200" t="inlineStr"/>
       <c r="AL200" t="n">
         <v>77515114127.08205</v>
       </c>
@@ -28162,9 +27306,7 @@
         <v>36312</v>
       </c>
       <c r="B201" t="inlineStr"/>
-      <c r="C201" t="n">
-        <v>19887810195835.24</v>
-      </c>
+      <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
         <v>1345187046275.381</v>
       </c>
@@ -28261,12 +27403,8 @@
       <c r="AI201" t="n">
         <v>60782316552.90102</v>
       </c>
-      <c r="AJ201" t="n">
-        <v>98690652557.31923</v>
-      </c>
-      <c r="AK201" t="n">
-        <v>98690652557.31923</v>
-      </c>
+      <c r="AJ201" t="inlineStr"/>
+      <c r="AK201" t="inlineStr"/>
       <c r="AL201" t="n">
         <v>91852388059.70149</v>
       </c>
@@ -28337,9 +27475,7 @@
         <v>36342</v>
       </c>
       <c r="B202" t="inlineStr"/>
-      <c r="C202" t="n">
-        <v>20442353427124.92</v>
-      </c>
+      <c r="C202" t="inlineStr"/>
       <c r="D202" t="n">
         <v>1346002367893.3</v>
       </c>
@@ -28436,12 +27572,8 @@
       <c r="AI202" t="n">
         <v>60363180630.36639</v>
       </c>
-      <c r="AJ202" t="n">
-        <v>100345005945.3032</v>
-      </c>
-      <c r="AK202" t="n">
-        <v>100345005945.3032</v>
-      </c>
+      <c r="AJ202" t="inlineStr"/>
+      <c r="AK202" t="inlineStr"/>
       <c r="AL202" t="n">
         <v>91296506550.21835</v>
       </c>
@@ -28512,9 +27644,7 @@
         <v>36373</v>
       </c>
       <c r="B203" t="inlineStr"/>
-      <c r="C203" t="n">
-        <v>20638917010423.6</v>
-      </c>
+      <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
         <v>1363138818412.468</v>
       </c>
@@ -28611,12 +27741,8 @@
       <c r="AI203" t="n">
         <v>60526610494.88055</v>
       </c>
-      <c r="AJ203" t="n">
-        <v>100830938242.2803</v>
-      </c>
-      <c r="AK203" t="n">
-        <v>100830938242.2803</v>
-      </c>
+      <c r="AJ203" t="inlineStr"/>
+      <c r="AK203" t="inlineStr"/>
       <c r="AL203" t="n">
         <v>82666103896.1039</v>
       </c>
@@ -28687,9 +27813,7 @@
         <v>36404</v>
       </c>
       <c r="B204" t="inlineStr"/>
-      <c r="C204" t="n">
-        <v>20903514533766.98</v>
-      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" t="n">
         <v>1390212375268.792</v>
       </c>
@@ -28786,12 +27910,8 @@
       <c r="AI204" t="n">
         <v>60244507252.55972</v>
       </c>
-      <c r="AJ204" t="n">
-        <v>100295905743.7408</v>
-      </c>
-      <c r="AK204" t="n">
-        <v>100295905743.7408</v>
-      </c>
+      <c r="AJ204" t="inlineStr"/>
+      <c r="AK204" t="inlineStr"/>
       <c r="AL204" t="n">
         <v>78636407474.38216</v>
       </c>
@@ -28862,9 +27982,7 @@
         <v>36434</v>
       </c>
       <c r="B205" t="inlineStr"/>
-      <c r="C205" t="n">
-        <v>21045135571724.37</v>
-      </c>
+      <c r="C205" t="inlineStr"/>
       <c r="D205" t="n">
         <v>1393969412162.652</v>
       </c>
@@ -28961,12 +28079,8 @@
       <c r="AI205" t="n">
         <v>60656996587.03072</v>
       </c>
-      <c r="AJ205" t="n">
-        <v>102096719831.4776</v>
-      </c>
-      <c r="AK205" t="n">
-        <v>102096719831.4776</v>
-      </c>
+      <c r="AJ205" t="inlineStr"/>
+      <c r="AK205" t="inlineStr"/>
       <c r="AL205" t="n">
         <v>92484705882.35294</v>
       </c>
@@ -29037,9 +28151,7 @@
         <v>36465</v>
       </c>
       <c r="B206" t="inlineStr"/>
-      <c r="C206" t="n">
-        <v>21050963351647.55</v>
-      </c>
+      <c r="C206" t="inlineStr"/>
       <c r="D206" t="n">
         <v>1407904431748.179</v>
       </c>
@@ -29136,12 +28248,8 @@
       <c r="AI206" t="n">
         <v>61493174061.43345</v>
       </c>
-      <c r="AJ206" t="n">
-        <v>101038196097.0966</v>
-      </c>
-      <c r="AK206" t="n">
-        <v>101038196097.0966</v>
-      </c>
+      <c r="AJ206" t="inlineStr"/>
+      <c r="AK206" t="inlineStr"/>
       <c r="AL206" t="n">
         <v>88125017229.49689</v>
       </c>
@@ -29212,9 +28320,7 @@
         <v>36495</v>
       </c>
       <c r="B207" t="inlineStr"/>
-      <c r="C207" t="n">
-        <v>21331450458424.44</v>
-      </c>
+      <c r="C207" t="inlineStr"/>
       <c r="D207" t="n">
         <v>1448129717978.139</v>
       </c>
@@ -29311,12 +28417,8 @@
       <c r="AI207" t="n">
         <v>64535200000</v>
       </c>
-      <c r="AJ207" t="n">
-        <v>104839802908.3043</v>
-      </c>
-      <c r="AK207" t="n">
-        <v>104839802908.3043</v>
-      </c>
+      <c r="AJ207" t="inlineStr"/>
+      <c r="AK207" t="inlineStr"/>
       <c r="AL207" t="n">
         <v>91660283687.94327</v>
       </c>
@@ -29387,9 +28489,7 @@
         <v>36526</v>
       </c>
       <c r="B208" t="inlineStr"/>
-      <c r="C208" t="n">
-        <v>20963026417758.3</v>
-      </c>
+      <c r="C208" t="inlineStr"/>
       <c r="D208" t="n">
         <v>1464350515214.844</v>
       </c>
@@ -29486,12 +28586,8 @@
       <c r="AI208" t="n">
         <v>64694965870.30717</v>
       </c>
-      <c r="AJ208" t="n">
-        <v>102446474735.6052</v>
-      </c>
-      <c r="AK208" t="n">
-        <v>102446474735.6052</v>
-      </c>
+      <c r="AJ208" t="inlineStr"/>
+      <c r="AK208" t="inlineStr"/>
       <c r="AL208" t="n">
         <v>87859149223.49763</v>
       </c>
@@ -29562,9 +28658,7 @@
         <v>36557</v>
       </c>
       <c r="B209" t="inlineStr"/>
-      <c r="C209" t="n">
-        <v>20733613317416.08</v>
-      </c>
+      <c r="C209" t="inlineStr"/>
       <c r="D209" t="n">
         <v>1468646872659.628</v>
       </c>
@@ -29661,12 +28755,8 @@
       <c r="AI209" t="n">
         <v>64046393814.15811</v>
       </c>
-      <c r="AJ209" t="n">
-        <v>100347737819.0255</v>
-      </c>
-      <c r="AK209" t="n">
-        <v>100347737819.0255</v>
-      </c>
+      <c r="AJ209" t="inlineStr"/>
+      <c r="AK209" t="inlineStr"/>
       <c r="AL209" t="n">
         <v>88050404312.66847</v>
       </c>
@@ -29737,9 +28827,7 @@
         <v>36586</v>
       </c>
       <c r="B210" t="inlineStr"/>
-      <c r="C210" t="n">
-        <v>21221038235950.62</v>
-      </c>
+      <c r="C210" t="inlineStr"/>
       <c r="D210" t="n">
         <v>1480990976844.19</v>
       </c>
@@ -29836,12 +28924,8 @@
       <c r="AI210" t="n">
         <v>65167577656.31249</v>
       </c>
-      <c r="AJ210" t="n">
-        <v>100895985508.0933</v>
-      </c>
-      <c r="AK210" t="n">
-        <v>100895985508.0933</v>
-      </c>
+      <c r="AJ210" t="inlineStr"/>
+      <c r="AK210" t="inlineStr"/>
       <c r="AL210" t="n">
         <v>86774752148.05023</v>
       </c>
@@ -29912,9 +28996,7 @@
         <v>36617</v>
       </c>
       <c r="B211" t="inlineStr"/>
-      <c r="C211" t="n">
-        <v>20923622512215.2</v>
-      </c>
+      <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
         <v>1500905705095.649</v>
       </c>
@@ -30011,12 +29093,8 @@
       <c r="AI211" t="n">
         <v>65936116887.96459</v>
       </c>
-      <c r="AJ211" t="n">
-        <v>99403445043.35599</v>
-      </c>
-      <c r="AK211" t="n">
-        <v>99403445043.35599</v>
-      </c>
+      <c r="AJ211" t="inlineStr"/>
+      <c r="AK211" t="inlineStr"/>
       <c r="AL211" t="n">
         <v>83677058453.80264</v>
       </c>
@@ -30087,9 +29165,7 @@
         <v>36647</v>
       </c>
       <c r="B212" t="inlineStr"/>
-      <c r="C212" t="n">
-        <v>20938537953475.59</v>
-      </c>
+      <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
         <v>1498716972925.954</v>
       </c>
@@ -30186,12 +29262,8 @@
       <c r="AI212" t="n">
         <v>66362618317.55766</v>
       </c>
-      <c r="AJ212" t="n">
-        <v>97881768848.86272</v>
-      </c>
-      <c r="AK212" t="n">
-        <v>97881768848.86272</v>
-      </c>
+      <c r="AJ212" t="inlineStr"/>
+      <c r="AK212" t="inlineStr"/>
       <c r="AL212" t="n">
         <v>79474069767.44186</v>
       </c>
@@ -30262,9 +29334,7 @@
         <v>36678</v>
       </c>
       <c r="B213" t="inlineStr"/>
-      <c r="C213" t="n">
-        <v>21200474663254.12</v>
-      </c>
+      <c r="C213" t="inlineStr"/>
       <c r="D213" t="n">
         <v>1531231707022.084</v>
       </c>
@@ -30361,12 +29431,8 @@
       <c r="AI213" t="n">
         <v>66770030662.57832</v>
       </c>
-      <c r="AJ213" t="n">
-        <v>99404109985.52821</v>
-      </c>
-      <c r="AK213" t="n">
-        <v>99404109985.52821</v>
-      </c>
+      <c r="AJ213" t="inlineStr"/>
+      <c r="AK213" t="inlineStr"/>
       <c r="AL213" t="n">
         <v>78344018317.11505</v>
       </c>
@@ -30437,9 +29503,7 @@
         <v>36708</v>
       </c>
       <c r="B214" t="inlineStr"/>
-      <c r="C214" t="n">
-        <v>20958754504788.92</v>
-      </c>
+      <c r="C214" t="inlineStr"/>
       <c r="D214" t="n">
         <v>1527606597818.463</v>
       </c>
@@ -30536,12 +29600,8 @@
       <c r="AI214" t="n">
         <v>65989015383.79502</v>
       </c>
-      <c r="AJ214" t="n">
-        <v>98153899440.05081</v>
-      </c>
-      <c r="AK214" t="n">
-        <v>98153899440.05081</v>
-      </c>
+      <c r="AJ214" t="inlineStr"/>
+      <c r="AK214" t="inlineStr"/>
       <c r="AL214" t="n">
         <v>76659444444.44444</v>
       </c>
@@ -30612,9 +29672,7 @@
         <v>36739</v>
       </c>
       <c r="B215" t="inlineStr"/>
-      <c r="C215" t="n">
-        <v>20969542938833.76</v>
-      </c>
+      <c r="C215" t="inlineStr"/>
       <c r="D215" t="n">
         <v>1543547529894.915</v>
       </c>
@@ -30711,12 +29769,8 @@
       <c r="AI215" t="n">
         <v>65571493321.2467</v>
       </c>
-      <c r="AJ215" t="n">
-        <v>97889444024.86493</v>
-      </c>
-      <c r="AK215" t="n">
-        <v>97889444024.86493</v>
-      </c>
+      <c r="AJ215" t="inlineStr"/>
+      <c r="AK215" t="inlineStr"/>
       <c r="AL215" t="n">
         <v>82602650602.40964</v>
       </c>
@@ -30787,9 +29841,7 @@
         <v>36770</v>
       </c>
       <c r="B216" t="inlineStr"/>
-      <c r="C216" t="n">
-        <v>20913666767155.13</v>
-      </c>
+      <c r="C216" t="inlineStr"/>
       <c r="D216" t="n">
         <v>1577714092239.232</v>
       </c>
@@ -30886,12 +29938,8 @@
       <c r="AI216" t="n">
         <v>65706820242.0946</v>
       </c>
-      <c r="AJ216" t="n">
-        <v>95659889731.21985</v>
-      </c>
-      <c r="AK216" t="n">
-        <v>95659889731.21985</v>
-      </c>
+      <c r="AJ216" t="inlineStr"/>
+      <c r="AK216" t="inlineStr"/>
       <c r="AL216" t="n">
         <v>78228262108.2621</v>
       </c>
@@ -30962,9 +30010,7 @@
         <v>36800</v>
       </c>
       <c r="B217" t="inlineStr"/>
-      <c r="C217" t="n">
-        <v>20681762786439.5</v>
-      </c>
+      <c r="C217" t="inlineStr"/>
       <c r="D217" t="n">
         <v>1566645297853.039</v>
       </c>
@@ -31061,12 +30107,8 @@
       <c r="AI217" t="n">
         <v>65123706942.51893</v>
       </c>
-      <c r="AJ217" t="n">
-        <v>94661726987.74579</v>
-      </c>
-      <c r="AK217" t="n">
-        <v>94661726987.74579</v>
-      </c>
+      <c r="AJ217" t="inlineStr"/>
+      <c r="AK217" t="inlineStr"/>
       <c r="AL217" t="n">
         <v>75906330472.103</v>
       </c>
@@ -31137,9 +30179,7 @@
         <v>36831</v>
       </c>
       <c r="B218" t="inlineStr"/>
-      <c r="C218" t="n">
-        <v>20701801954940.47</v>
-      </c>
+      <c r="C218" t="inlineStr"/>
       <c r="D218" t="n">
         <v>1584407997387.423</v>
       </c>
@@ -31236,12 +30276,8 @@
       <c r="AI218" t="n">
         <v>65752639436.92012</v>
       </c>
-      <c r="AJ218" t="n">
-        <v>96078072426.57542</v>
-      </c>
-      <c r="AK218" t="n">
-        <v>96078072426.57542</v>
-      </c>
+      <c r="AJ218" t="inlineStr"/>
+      <c r="AK218" t="inlineStr"/>
       <c r="AL218" t="n">
         <v>75617952755.90552</v>
       </c>
@@ -31312,9 +30348,7 @@
         <v>36861</v>
       </c>
       <c r="B219" t="inlineStr"/>
-      <c r="C219" t="n">
-        <v>21067710136075.66</v>
-      </c>
+      <c r="C219" t="inlineStr"/>
       <c r="D219" t="n">
         <v>1628068117221.611</v>
       </c>
@@ -31411,12 +30445,8 @@
       <c r="AI219" t="n">
         <v>68342442744.02111</v>
       </c>
-      <c r="AJ219" t="n">
-        <v>98608158790.60641</v>
-      </c>
-      <c r="AK219" t="n">
-        <v>98608158790.60641</v>
-      </c>
+      <c r="AJ219" t="inlineStr"/>
+      <c r="AK219" t="inlineStr"/>
       <c r="AL219" t="n">
         <v>78469327731.09244</v>
       </c>
@@ -31487,9 +30517,7 @@
         <v>36892</v>
       </c>
       <c r="B220" t="inlineStr"/>
-      <c r="C220" t="n">
-        <v>21142049253659.51</v>
-      </c>
+      <c r="C220" t="inlineStr"/>
       <c r="D220" t="n">
         <v>1663545433654.648</v>
       </c>
@@ -31586,12 +30614,8 @@
       <c r="AI220" t="n">
         <v>68563658178.90948</v>
       </c>
-      <c r="AJ220" t="n">
-        <v>100078427997.7051</v>
-      </c>
-      <c r="AK220" t="n">
-        <v>100078427997.7051</v>
-      </c>
+      <c r="AJ220" t="inlineStr"/>
+      <c r="AK220" t="inlineStr"/>
       <c r="AL220" t="n">
         <v>78630228845.13039</v>
       </c>
@@ -31662,9 +30686,7 @@
         <v>36923</v>
       </c>
       <c r="B221" t="inlineStr"/>
-      <c r="C221" t="n">
-        <v>21026881648322.75</v>
-      </c>
+      <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
         <v>1647378542142.883</v>
       </c>
@@ -31761,12 +30783,8 @@
       <c r="AI221" t="n">
         <v>69812281684.13194</v>
       </c>
-      <c r="AJ221" t="n">
-        <v>100223942208.4623</v>
-      </c>
-      <c r="AK221" t="n">
-        <v>100223942208.4623</v>
-      </c>
+      <c r="AJ221" t="inlineStr"/>
+      <c r="AK221" t="inlineStr"/>
       <c r="AL221" t="n">
         <v>77093115757.26671</v>
       </c>
@@ -31837,9 +30855,7 @@
         <v>36951</v>
       </c>
       <c r="B222" t="inlineStr"/>
-      <c r="C222" t="n">
-        <v>20449977194249.06</v>
-      </c>
+      <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
         <v>1678151118206.998</v>
       </c>
@@ -31936,12 +30952,8 @@
       <c r="AI222" t="n">
         <v>70711124146.75768</v>
       </c>
-      <c r="AJ222" t="n">
-        <v>97785932043.67828</v>
-      </c>
-      <c r="AK222" t="n">
-        <v>97785932043.67828</v>
-      </c>
+      <c r="AJ222" t="inlineStr"/>
+      <c r="AK222" t="inlineStr"/>
       <c r="AL222" t="n">
         <v>73731923076.92308</v>
       </c>
@@ -32012,9 +31024,7 @@
         <v>36982</v>
       </c>
       <c r="B223" t="inlineStr"/>
-      <c r="C223" t="n">
-        <v>20871394652276.97</v>
-      </c>
+      <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
         <v>1692792171662.191</v>
       </c>
@@ -32111,12 +31121,8 @@
       <c r="AI223" t="n">
         <v>70315174786.01712</v>
       </c>
-      <c r="AJ223" t="n">
-        <v>97501839749.57439</v>
-      </c>
-      <c r="AK223" t="n">
-        <v>97501839749.57439</v>
-      </c>
+      <c r="AJ223" t="inlineStr"/>
+      <c r="AK223" t="inlineStr"/>
       <c r="AL223" t="n">
         <v>68591082251.08225</v>
       </c>
@@ -32187,9 +31193,7 @@
         <v>37012</v>
       </c>
       <c r="B224" t="inlineStr"/>
-      <c r="C224" t="n">
-        <v>20846350323487.71</v>
-      </c>
+      <c r="C224" t="inlineStr"/>
       <c r="D224" t="n">
         <v>1681574936494.496</v>
       </c>
@@ -32286,12 +31290,8 @@
       <c r="AI224" t="n">
         <v>71020984987.86765</v>
       </c>
-      <c r="AJ224" t="n">
-        <v>97579104477.61195</v>
-      </c>
-      <c r="AK224" t="n">
-        <v>97579104477.61195</v>
-      </c>
+      <c r="AJ224" t="inlineStr"/>
+      <c r="AK224" t="inlineStr"/>
       <c r="AL224" t="n">
         <v>71019819819.81982</v>
       </c>
@@ -32362,9 +31362,7 @@
         <v>37043</v>
       </c>
       <c r="B225" t="inlineStr"/>
-      <c r="C225" t="n">
-        <v>20823811811019.4</v>
-      </c>
+      <c r="C225" t="inlineStr"/>
       <c r="D225" t="n">
         <v>1788013354784.86</v>
       </c>
@@ -32461,12 +31459,8 @@
       <c r="AI225" t="n">
         <v>70699200000</v>
       </c>
-      <c r="AJ225" t="n">
-        <v>96093533867.60347</v>
-      </c>
-      <c r="AK225" t="n">
-        <v>96093533867.60347</v>
-      </c>
+      <c r="AJ225" t="inlineStr"/>
+      <c r="AK225" t="inlineStr"/>
       <c r="AL225" t="n">
         <v>70543844109.83171</v>
       </c>
@@ -32537,9 +31531,7 @@
         <v>37073</v>
       </c>
       <c r="B226" t="inlineStr"/>
-      <c r="C226" t="n">
-        <v>21052890436049.87</v>
-      </c>
+      <c r="C226" t="inlineStr"/>
       <c r="D226" t="n">
         <v>1805113100278.215</v>
       </c>
@@ -32636,12 +31628,8 @@
       <c r="AI226" t="n">
         <v>69611241467.5768</v>
       </c>
-      <c r="AJ226" t="n">
-        <v>95104959502.9402</v>
-      </c>
-      <c r="AK226" t="n">
-        <v>95104959502.9402</v>
-      </c>
+      <c r="AJ226" t="inlineStr"/>
+      <c r="AK226" t="inlineStr"/>
       <c r="AL226" t="n">
         <v>81386279683.37732</v>
       </c>
@@ -32712,9 +31700,7 @@
         <v>37104</v>
       </c>
       <c r="B227" t="inlineStr"/>
-      <c r="C227" t="n">
-        <v>21593320240491.68</v>
-      </c>
+      <c r="C227" t="inlineStr"/>
       <c r="D227" t="n">
         <v>1813760901910.027</v>
       </c>
@@ -32811,12 +31797,8 @@
       <c r="AI227" t="n">
         <v>69838679572.30089</v>
       </c>
-      <c r="AJ227" t="n">
-        <v>98672043628.01376</v>
-      </c>
-      <c r="AK227" t="n">
-        <v>98672043628.01376</v>
-      </c>
+      <c r="AJ227" t="inlineStr"/>
+      <c r="AK227" t="inlineStr"/>
       <c r="AL227" t="n">
         <v>87461807909.60452</v>
       </c>
@@ -32887,9 +31869,7 @@
         <v>37135</v>
       </c>
       <c r="B228" t="inlineStr"/>
-      <c r="C228" t="n">
-        <v>21721457197123.99</v>
-      </c>
+      <c r="C228" t="inlineStr"/>
       <c r="D228" t="n">
         <v>1836505056370.059</v>
       </c>
@@ -32986,12 +31966,8 @@
       <c r="AI228" t="n">
         <v>69585388614.85135</v>
       </c>
-      <c r="AJ228" t="n">
-        <v>98963847241.86705</v>
-      </c>
-      <c r="AK228" t="n">
-        <v>98963847241.86705</v>
-      </c>
+      <c r="AJ228" t="inlineStr"/>
+      <c r="AK228" t="inlineStr"/>
       <c r="AL228" t="n">
         <v>80815686274.5098</v>
       </c>
@@ -33062,9 +32038,7 @@
         <v>37165</v>
       </c>
       <c r="B229" t="inlineStr"/>
-      <c r="C229" t="n">
-        <v>21566201151626.14</v>
-      </c>
+      <c r="C229" t="inlineStr"/>
       <c r="D229" t="n">
         <v>1832599070982.726</v>
       </c>
@@ -33161,12 +32135,8 @@
       <c r="AI229" t="n">
         <v>70017867143.12383</v>
       </c>
-      <c r="AJ229" t="n">
-        <v>96362833799.41876</v>
-      </c>
-      <c r="AK229" t="n">
-        <v>96362833799.41876</v>
-      </c>
+      <c r="AJ229" t="inlineStr"/>
+      <c r="AK229" t="inlineStr"/>
       <c r="AL229" t="n">
         <v>77369760765.55025</v>
       </c>
@@ -33237,9 +32207,7 @@
         <v>37196</v>
       </c>
       <c r="B230" t="inlineStr"/>
-      <c r="C230" t="n">
-        <v>21638435903193.94</v>
-      </c>
+      <c r="C230" t="inlineStr"/>
       <c r="D230" t="n">
         <v>1861644315573.275</v>
       </c>
@@ -33336,12 +32304,8 @@
       <c r="AI230" t="n">
         <v>71561250066.66312</v>
       </c>
-      <c r="AJ230" t="n">
-        <v>98917039868.92409</v>
-      </c>
-      <c r="AK230" t="n">
-        <v>98917039868.92409</v>
-      </c>
+      <c r="AJ230" t="inlineStr"/>
+      <c r="AK230" t="inlineStr"/>
       <c r="AL230" t="n">
         <v>78630717703.34929</v>
       </c>
@@ -33412,9 +32376,7 @@
         <v>37226</v>
       </c>
       <c r="B231" t="inlineStr"/>
-      <c r="C231" t="n">
-        <v>21563356613159.93</v>
-      </c>
+      <c r="C231" t="inlineStr"/>
       <c r="D231" t="n">
         <v>1912782745287.579</v>
       </c>
@@ -33511,12 +32473,8 @@
       <c r="AI231" t="n">
         <v>72286072371.40343</v>
       </c>
-      <c r="AJ231" t="n">
-        <v>98005579933.90756</v>
-      </c>
-      <c r="AK231" t="n">
-        <v>98005579933.90756</v>
-      </c>
+      <c r="AJ231" t="inlineStr"/>
+      <c r="AK231" t="inlineStr"/>
       <c r="AL231" t="n">
         <v>81551014492.75362</v>
       </c>
@@ -33587,9 +32545,7 @@
         <v>37257</v>
       </c>
       <c r="B232" t="inlineStr"/>
-      <c r="C232" t="n">
-        <v>21310366611594.8</v>
-      </c>
+      <c r="C232" t="inlineStr"/>
       <c r="D232" t="n">
         <v>1928942725954.568</v>
       </c>
@@ -33686,12 +32642,8 @@
       <c r="AI232" t="n">
         <v>72745793445.50812</v>
       </c>
-      <c r="AJ232" t="n">
-        <v>97582658331.06822</v>
-      </c>
-      <c r="AK232" t="n">
-        <v>97582658331.06822</v>
-      </c>
+      <c r="AJ232" t="inlineStr"/>
+      <c r="AK232" t="inlineStr"/>
       <c r="AL232" t="n">
         <v>81361359223.30098</v>
       </c>
@@ -33762,9 +32714,7 @@
         <v>37288</v>
       </c>
       <c r="B233" t="inlineStr"/>
-      <c r="C233" t="n">
-        <v>21463711488623.27</v>
-      </c>
+      <c r="C233" t="inlineStr"/>
       <c r="D233" t="n">
         <v>1946840863727.091</v>
       </c>
@@ -33861,12 +32811,8 @@
       <c r="AI233" t="n">
         <v>74173022561.20326</v>
       </c>
-      <c r="AJ233" t="n">
-        <v>98160758179.93117</v>
-      </c>
-      <c r="AK233" t="n">
-        <v>98160758179.93117</v>
-      </c>
+      <c r="AJ233" t="inlineStr"/>
+      <c r="AK233" t="inlineStr"/>
       <c r="AL233" t="n">
         <v>83299502487.56218</v>
       </c>
@@ -33937,9 +32883,7 @@
         <v>37316</v>
       </c>
       <c r="B234" t="inlineStr"/>
-      <c r="C234" t="n">
-        <v>21645483196844.17</v>
-      </c>
+      <c r="C234" t="inlineStr"/>
       <c r="D234" t="n">
         <v>1982078913668.543</v>
       </c>
@@ -34036,12 +32980,8 @@
       <c r="AI234" t="n">
         <v>74305333333.33333</v>
       </c>
-      <c r="AJ234" t="n">
-        <v>99048223487.93057</v>
-      </c>
-      <c r="AK234" t="n">
-        <v>99048223487.93057</v>
-      </c>
+      <c r="AJ234" t="inlineStr"/>
+      <c r="AK234" t="inlineStr"/>
       <c r="AL234" t="n">
         <v>84837857142.85715</v>
       </c>
@@ -34112,9 +33052,7 @@
         <v>37347</v>
       </c>
       <c r="B235" t="inlineStr"/>
-      <c r="C235" t="n">
-        <v>22124754538790.95</v>
-      </c>
+      <c r="C235" t="inlineStr"/>
       <c r="D235" t="n">
         <v>1988215964142.897</v>
       </c>
@@ -34211,12 +33149,8 @@
       <c r="AI235" t="n">
         <v>75069998133.38312</v>
       </c>
-      <c r="AJ235" t="n">
-        <v>99506771636.20348</v>
-      </c>
-      <c r="AK235" t="n">
-        <v>99506771636.20348</v>
-      </c>
+      <c r="AJ235" t="inlineStr"/>
+      <c r="AK235" t="inlineStr"/>
       <c r="AL235" t="n">
         <v>88871030042.91846</v>
       </c>
@@ -47357,10 +46291,10 @@
         <v>39630</v>
       </c>
       <c r="B310" t="n">
-        <v>45878196006882.91</v>
+        <v>45878195149884.62</v>
       </c>
       <c r="C310" t="n">
-        <v>45878196006882.91</v>
+        <v>45878195149884.62</v>
       </c>
       <c r="D310" t="n">
         <v>6533404566744.73</v>
@@ -47459,10 +46393,10 @@
         <v>195211861017.0396</v>
       </c>
       <c r="AJ310" t="n">
-        <v>234372751206.6696</v>
+        <v>234371894208.3728</v>
       </c>
       <c r="AK310" t="n">
-        <v>234372751206.6696</v>
+        <v>234371894208.3728</v>
       </c>
       <c r="AL310" t="n">
         <v>184975315414.1525</v>
@@ -49684,10 +48618,10 @@
         <v>40026</v>
       </c>
       <c r="B323" t="n">
-        <v>48953919347310.45</v>
+        <v>48953920208914.08</v>
       </c>
       <c r="C323" t="n">
-        <v>48953919347310.45</v>
+        <v>48953920208914.08</v>
       </c>
       <c r="D323" t="n">
         <v>8442503916028.635</v>
@@ -49786,10 +48720,10 @@
         <v>220010399722.6741</v>
       </c>
       <c r="AJ323" t="n">
-        <v>248327088017.3204</v>
+        <v>248327949620.9427</v>
       </c>
       <c r="AK323" t="n">
-        <v>248327088017.3204</v>
+        <v>248327949620.9427</v>
       </c>
       <c r="AL323" t="n">
         <v>198044089330.0248</v>
@@ -52906,10 +51840,10 @@
         <v>40575</v>
       </c>
       <c r="B341" t="n">
-        <v>56238740152087.38</v>
+        <v>56238741408395.35</v>
       </c>
       <c r="C341" t="n">
-        <v>56238740152087.38</v>
+        <v>56238741408395.35</v>
       </c>
       <c r="D341" t="n">
         <v>11200506671941.33</v>
@@ -53008,10 +51942,10 @@
         <v>248935341954.4061</v>
       </c>
       <c r="AJ341" t="n">
-        <v>319502988361.1198</v>
+        <v>319504244669.0967</v>
       </c>
       <c r="AK341" t="n">
-        <v>319502988361.1198</v>
+        <v>319504244669.0967</v>
       </c>
       <c r="AL341" t="n">
         <v>274553726602.3823</v>
@@ -53622,10 +52556,10 @@
         <v>40695</v>
       </c>
       <c r="B345" t="n">
-        <v>59194006974960.43</v>
+        <v>59194008378254.07</v>
       </c>
       <c r="C345" t="n">
-        <v>59194006974960.43</v>
+        <v>59194008378254.07</v>
       </c>
       <c r="D345" t="n">
         <v>12078596952587.21</v>
@@ -53724,10 +52658,10 @@
         <v>270671520388.2978</v>
       </c>
       <c r="AJ345" t="n">
-        <v>344765389687.5662</v>
+        <v>344766792981.1993</v>
       </c>
       <c r="AK345" t="n">
-        <v>344765389687.5662</v>
+        <v>344766792981.1993</v>
       </c>
       <c r="AL345" t="n">
         <v>294373838973.1622</v>
@@ -54875,10 +53809,10 @@
         <v>40909</v>
       </c>
       <c r="B352" t="n">
-        <v>60972432670505.49</v>
+        <v>60972434080665.7</v>
       </c>
       <c r="C352" t="n">
-        <v>60972432670505.49</v>
+        <v>60972434080665.7</v>
       </c>
       <c r="D352" t="n">
         <v>13575569019937.51</v>
@@ -54977,10 +53911,10 @@
         <v>287460800000</v>
       </c>
       <c r="AJ352" t="n">
-        <v>354862585834.1811</v>
+        <v>354863995994.389</v>
       </c>
       <c r="AK352" t="n">
-        <v>354862585834.1811</v>
+        <v>354863995994.389</v>
       </c>
       <c r="AL352" t="n">
         <v>318165579064.588</v>
@@ -58455,10 +57389,10 @@
         <v>41518</v>
       </c>
       <c r="B372" t="n">
-        <v>66431748174453.44</v>
+        <v>66431746602428.89</v>
       </c>
       <c r="C372" t="n">
-        <v>66431748174453.44</v>
+        <v>66431746602428.89</v>
       </c>
       <c r="D372" t="n">
         <v>17604810614725.97</v>
@@ -58557,10 +57491,10 @@
         <v>344137600000</v>
       </c>
       <c r="AJ372" t="n">
-        <v>394824969341.7637</v>
+        <v>394823397317.2159</v>
       </c>
       <c r="AK372" t="n">
-        <v>394824969341.7637</v>
+        <v>394823397317.2159</v>
       </c>
       <c r="AL372" t="n">
         <v>309773595505.618</v>
@@ -59529,10 +58463,10 @@
         <v>41699</v>
       </c>
       <c r="B378" t="n">
-        <v>68380373791800.59</v>
+        <v>68380372203739.93</v>
       </c>
       <c r="C378" t="n">
-        <v>68380373791800.59</v>
+        <v>68380372203739.93</v>
       </c>
       <c r="D378" t="n">
         <v>18671375715848.4</v>
@@ -59631,10 +58565,10 @@
         <v>375943683003.5732</v>
       </c>
       <c r="AJ378" t="n">
-        <v>399411549533.2156</v>
+        <v>399409961472.5518</v>
       </c>
       <c r="AK378" t="n">
-        <v>399411549533.2156</v>
+        <v>399409961472.5518</v>
       </c>
       <c r="AL378" t="n">
         <v>321667151034.7864</v>
@@ -60066,10 +59000,10 @@
         <v>41791</v>
       </c>
       <c r="B381" t="n">
-        <v>70241926340710.85</v>
+        <v>70241927933841.12</v>
       </c>
       <c r="C381" t="n">
-        <v>70241926340710.85</v>
+        <v>70241927933841.12</v>
       </c>
       <c r="D381" t="n">
         <v>19498463770452.16</v>
@@ -60168,10 +59102,10 @@
         <v>386855367713.722</v>
       </c>
       <c r="AJ381" t="n">
-        <v>397191275329.301</v>
+        <v>397192868459.5792</v>
       </c>
       <c r="AK381" t="n">
-        <v>397191275329.301</v>
+        <v>397192868459.5792</v>
       </c>
       <c r="AL381" t="n">
         <v>325703824398.4804</v>
@@ -60961,10 +59895,10 @@
         <v>41944</v>
       </c>
       <c r="B386" t="n">
-        <v>67450206880503.46</v>
+        <v>67450205391717.48</v>
       </c>
       <c r="C386" t="n">
-        <v>67450206880503.46</v>
+        <v>67450205391717.48</v>
       </c>
       <c r="D386" t="n">
         <v>19674844128994.45</v>
@@ -61063,10 +59997,10 @@
         <v>399847580473.2466</v>
       </c>
       <c r="AJ386" t="n">
-        <v>388360244732.7261</v>
+        <v>388358755946.7448</v>
       </c>
       <c r="AK386" t="n">
-        <v>388360244732.7261</v>
+        <v>388358755946.7448</v>
       </c>
       <c r="AL386" t="n">
         <v>334180662349.3729</v>
@@ -61140,10 +60074,10 @@
         <v>41974</v>
       </c>
       <c r="B387" t="n">
-        <v>67243097808596.61</v>
+        <v>67243099270722.13</v>
       </c>
       <c r="C387" t="n">
-        <v>67243097808596.61</v>
+        <v>67243099270722.13</v>
       </c>
       <c r="D387" t="n">
         <v>19807704587599.77</v>
@@ -61242,10 +60176,10 @@
         <v>410756933898.1696</v>
       </c>
       <c r="AJ387" t="n">
-        <v>387110892884.1215</v>
+        <v>387112355009.6503</v>
       </c>
       <c r="AK387" t="n">
-        <v>387110892884.1215</v>
+        <v>387112355009.6503</v>
       </c>
       <c r="AL387" t="n">
         <v>336830225988.7006</v>
@@ -61319,10 +60253,10 @@
         <v>42005</v>
       </c>
       <c r="B388" t="n">
-        <v>66481952877042.15</v>
+        <v>66481954280793.34</v>
       </c>
       <c r="C388" t="n">
-        <v>66481952877042.15</v>
+        <v>66481954280793.34</v>
       </c>
       <c r="D388" t="n">
         <v>19884953996319.7</v>
@@ -61421,10 +60355,10 @@
         <v>405726523011.4392</v>
       </c>
       <c r="AJ388" t="n">
-        <v>380213028325.0141</v>
+        <v>380214432076.2031</v>
       </c>
       <c r="AK388" t="n">
-        <v>380213028325.0141</v>
+        <v>380214432076.2031</v>
       </c>
       <c r="AL388" t="n">
         <v>329634891433.0833</v>
@@ -61677,10 +60611,10 @@
         <v>42064</v>
       </c>
       <c r="B390" t="n">
-        <v>66648843002112.21</v>
+        <v>66648841616572.52</v>
       </c>
       <c r="C390" t="n">
-        <v>66648843002112.21</v>
+        <v>66648841616572.52</v>
       </c>
       <c r="D390" t="n">
         <v>20573202129375.71</v>
@@ -61779,10 +60713,10 @@
         <v>427166013490.0957</v>
       </c>
       <c r="AJ390" t="n">
-        <v>380282149935.875</v>
+        <v>380280764396.189</v>
       </c>
       <c r="AK390" t="n">
-        <v>380282149935.875</v>
+        <v>380280764396.189</v>
       </c>
       <c r="AL390" t="n">
         <v>324893741392.5019</v>
@@ -61856,10 +60790,10 @@
         <v>42095</v>
       </c>
       <c r="B391" t="n">
-        <v>68036186403016.08</v>
+        <v>68036184914310.42</v>
       </c>
       <c r="C391" t="n">
-        <v>68036186403016.08</v>
+        <v>68036184914310.42</v>
       </c>
       <c r="D391" t="n">
         <v>20651731755296.85</v>
@@ -61958,10 +60892,10 @@
         <v>427762814016.7476</v>
       </c>
       <c r="AJ391" t="n">
-        <v>394109514527.8998</v>
+        <v>394108025822.2435</v>
       </c>
       <c r="AK391" t="n">
-        <v>394109514527.8998</v>
+        <v>394108025822.2435</v>
       </c>
       <c r="AL391" t="n">
         <v>329915979938.2716</v>
@@ -62214,10 +61148,10 @@
         <v>42156</v>
       </c>
       <c r="B393" t="n">
-        <v>68655185056380.54</v>
+        <v>68655186468038.13</v>
       </c>
       <c r="C393" t="n">
-        <v>68655185056380.54</v>
+        <v>68655186468038.13</v>
       </c>
       <c r="D393" t="n">
         <v>21506054838709.68</v>
@@ -62316,10 +61250,10 @@
         <v>434718118299.6426</v>
       </c>
       <c r="AJ393" t="n">
-        <v>380400783754.8985</v>
+        <v>380402195412.4933</v>
       </c>
       <c r="AK393" t="n">
-        <v>380400783754.8985</v>
+        <v>380402195412.4933</v>
       </c>
       <c r="AL393" t="n">
         <v>326991860465.1163</v>
@@ -62751,10 +61685,10 @@
         <v>42248</v>
       </c>
       <c r="B396" t="n">
-        <v>68192403960199</v>
+        <v>68192402672180.75</v>
       </c>
       <c r="C396" t="n">
-        <v>68192403960199</v>
+        <v>68192402672180.75</v>
       </c>
       <c r="D396" t="n">
         <v>21396020769412.32</v>
@@ -62853,10 +61787,10 @@
         <v>438962988640.6058</v>
       </c>
       <c r="AJ396" t="n">
-        <v>366421872583.3439</v>
+        <v>366420584565.0912</v>
       </c>
       <c r="AK396" t="n">
-        <v>366421872583.3439</v>
+        <v>366420584565.0912</v>
       </c>
       <c r="AL396" t="n">
         <v>307859556162.5128</v>
@@ -63109,10 +62043,10 @@
         <v>42309</v>
       </c>
       <c r="B398" t="n">
-        <v>67888350899491.34</v>
+        <v>67888349590355.3</v>
       </c>
       <c r="C398" t="n">
-        <v>67888350899491.34</v>
+        <v>67888349590355.3</v>
       </c>
       <c r="D398" t="n">
         <v>21474773366677.09</v>
@@ -63211,10 +62145,10 @@
         <v>429282515991.4712</v>
       </c>
       <c r="AJ398" t="n">
-        <v>369402846490.7928</v>
+        <v>369401537354.7433</v>
       </c>
       <c r="AK398" t="n">
-        <v>369402846490.7928</v>
+        <v>369401537354.7433</v>
       </c>
       <c r="AL398" t="n">
         <v>321932364425.1627</v>
@@ -63646,10 +62580,10 @@
         <v>42401</v>
       </c>
       <c r="B401" t="n">
-        <v>69389468142706.48</v>
+        <v>69389469459951.86</v>
       </c>
       <c r="C401" t="n">
-        <v>69389468142706.48</v>
+        <v>69389469459951.86</v>
       </c>
       <c r="D401" t="n">
         <v>21746583727675.16</v>
@@ -63748,10 +62682,10 @@
         <v>416157887718.3624</v>
       </c>
       <c r="AJ401" t="n">
-        <v>370529272073.1481</v>
+        <v>370530589318.5349</v>
       </c>
       <c r="AK401" t="n">
-        <v>370529272073.1481</v>
+        <v>370530589318.5349</v>
       </c>
       <c r="AL401" t="n">
         <v>338292152315.4036</v>
@@ -63825,10 +62759,10 @@
         <v>42430</v>
       </c>
       <c r="B402" t="n">
-        <v>71546530510799.75</v>
+        <v>71546529044716.78</v>
       </c>
       <c r="C402" t="n">
-        <v>71546530510799.75</v>
+        <v>71546529044716.78</v>
       </c>
       <c r="D402" t="n">
         <v>22408472527813.07</v>
@@ -63927,10 +62861,10 @@
         <v>417966820473.155</v>
       </c>
       <c r="AJ402" t="n">
-        <v>395345397908.4772</v>
+        <v>395343931825.5142</v>
       </c>
       <c r="AK402" t="n">
-        <v>395345397908.4772</v>
+        <v>395343931825.5142</v>
       </c>
       <c r="AL402" t="n">
         <v>344102157676.3486</v>
@@ -64004,10 +62938,10 @@
         <v>42461</v>
       </c>
       <c r="B403" t="n">
-        <v>72468698454831.62</v>
+        <v>72468699937810.62</v>
       </c>
       <c r="C403" t="n">
-        <v>72468698454831.62</v>
+        <v>72468699937810.62</v>
       </c>
       <c r="D403" t="n">
         <v>22323976644320.19</v>
@@ -64106,10 +63040,10 @@
         <v>415649066666.6667</v>
       </c>
       <c r="AJ403" t="n">
-        <v>398664796821.7598</v>
+        <v>398666279800.7641</v>
       </c>
       <c r="AK403" t="n">
-        <v>398664796821.7598</v>
+        <v>398666279800.7641</v>
       </c>
       <c r="AL403" t="n">
         <v>347770618595.8254</v>
@@ -64183,10 +63117,10 @@
         <v>42491</v>
       </c>
       <c r="B404" t="n">
-        <v>71405515598643.42</v>
+        <v>71405517008649.28</v>
       </c>
       <c r="C404" t="n">
-        <v>71405515598643.42</v>
+        <v>71405517008649.28</v>
       </c>
       <c r="D404" t="n">
         <v>22222654503990.88</v>
@@ -64285,10 +63219,10 @@
         <v>418324667359.9445</v>
       </c>
       <c r="AJ404" t="n">
-        <v>388505966552.465</v>
+        <v>388507376558.332</v>
       </c>
       <c r="AK404" t="n">
-        <v>388505966552.465</v>
+        <v>388507376558.332</v>
       </c>
       <c r="AL404" t="n">
         <v>339269250000</v>
@@ -64720,10 +63654,10 @@
         <v>42583</v>
       </c>
       <c r="B407" t="n">
-        <v>73241848744231.11</v>
+        <v>73241847277233.48</v>
       </c>
       <c r="C407" t="n">
-        <v>73241848744231.11</v>
+        <v>73241847277233.48</v>
       </c>
       <c r="D407" t="n">
         <v>22627973043803.82</v>
@@ -64822,10 +63756,10 @@
         <v>420177857180.9504</v>
       </c>
       <c r="AJ407" t="n">
-        <v>399764186947.7145</v>
+        <v>399762719950.0926</v>
       </c>
       <c r="AK407" t="n">
-        <v>399764186947.7145</v>
+        <v>399762719950.0926</v>
       </c>
       <c r="AL407" t="n">
         <v>357920565610.8597</v>
@@ -64899,10 +63833,10 @@
         <v>42614</v>
       </c>
       <c r="B408" t="n">
-        <v>73934360414239.2</v>
+        <v>73934358939617.97</v>
       </c>
       <c r="C408" t="n">
-        <v>73934360414239.2</v>
+        <v>73934358939617.97</v>
       </c>
       <c r="D408" t="n">
         <v>22739154232586.04</v>
@@ -65001,10 +63935,10 @@
         <v>424169821380.9651</v>
       </c>
       <c r="AJ408" t="n">
-        <v>402054003697.0746</v>
+        <v>402052529075.8447</v>
       </c>
       <c r="AK408" t="n">
-        <v>402054003697.0746</v>
+        <v>402052529075.8447</v>
       </c>
       <c r="AL408" t="n">
         <v>363175990801.0732</v>
@@ -65615,10 +64549,10 @@
         <v>42736</v>
       </c>
       <c r="B412" t="n">
-        <v>73253635418168.41</v>
+        <v>73253633998990.69</v>
       </c>
       <c r="C412" t="n">
-        <v>73253635418168.41</v>
+        <v>73253633998990.69</v>
       </c>
       <c r="D412" t="n">
         <v>22917178297730.02</v>
@@ -65717,10 +64651,10 @@
         <v>432038998106.1111</v>
       </c>
       <c r="AJ412" t="n">
-        <v>400175475927.0292</v>
+        <v>400174056749.3093</v>
       </c>
       <c r="AK412" t="n">
-        <v>400175475927.0292</v>
+        <v>400174056749.3093</v>
       </c>
       <c r="AL412" t="n">
         <v>369942450355.9385</v>
@@ -65794,10 +64728,10 @@
         <v>42767</v>
       </c>
       <c r="B413" t="n">
-        <v>73355447148176.27</v>
+        <v>73355445717019.66</v>
       </c>
       <c r="C413" t="n">
-        <v>73355447148176.27</v>
+        <v>73355445717019.66</v>
       </c>
       <c r="D413" t="n">
         <v>23053027787486.89</v>
@@ -65896,10 +64830,10 @@
         <v>429281084109.1578</v>
       </c>
       <c r="AJ413" t="n">
-        <v>401555349632.9033</v>
+        <v>401553918476.3046</v>
       </c>
       <c r="AK413" t="n">
-        <v>401555349632.9033</v>
+        <v>401553918476.3046</v>
       </c>
       <c r="AL413" t="n">
         <v>370250412355.6755</v>
@@ -65973,10 +64907,10 @@
         <v>42795</v>
       </c>
       <c r="B414" t="n">
-        <v>74169591172843.28</v>
+        <v>74169592640713.94</v>
       </c>
       <c r="C414" t="n">
-        <v>74169591172843.28</v>
+        <v>74169592640713.94</v>
       </c>
       <c r="D414" t="n">
         <v>23239668172770.99</v>
@@ -66075,10 +65009,10 @@
         <v>434794378066.9938</v>
       </c>
       <c r="AJ414" t="n">
-        <v>410156822606.5048</v>
+        <v>410158290477.1618</v>
       </c>
       <c r="AK414" t="n">
-        <v>410156822606.5048</v>
+        <v>410158290477.1618</v>
       </c>
       <c r="AL414" t="n">
         <v>376615146738.7225</v>
@@ -66868,10 +65802,10 @@
         <v>42948</v>
       </c>
       <c r="B419" t="n">
-        <v>78829095923416.66</v>
+        <v>78829097494221.36</v>
       </c>
       <c r="C419" t="n">
-        <v>78829095923416.66</v>
+        <v>78829097494221.36</v>
       </c>
       <c r="D419" t="n">
         <v>24968986765420.11</v>
@@ -66970,10 +65904,10 @@
         <v>439824000000</v>
       </c>
       <c r="AJ419" t="n">
-        <v>425918981515.6298</v>
+        <v>425920552320.3281</v>
       </c>
       <c r="AK419" t="n">
-        <v>425918981515.6298</v>
+        <v>425920552320.3281</v>
       </c>
       <c r="AL419" t="n">
         <v>392130388400.5709</v>
@@ -67047,10 +65981,10 @@
         <v>42979</v>
       </c>
       <c r="B420" t="n">
-        <v>78583153707644.62</v>
+        <v>78583152139992.52</v>
       </c>
       <c r="C420" t="n">
-        <v>78583153707644.62</v>
+        <v>78583152139992.52</v>
       </c>
       <c r="D420" t="n">
         <v>24885199603198.46</v>
@@ -67149,10 +66083,10 @@
         <v>431820945675.6541</v>
       </c>
       <c r="AJ420" t="n">
-        <v>425656737525.9645</v>
+        <v>425655169873.8606</v>
       </c>
       <c r="AK420" t="n">
-        <v>425656737525.9645</v>
+        <v>425655169873.8606</v>
       </c>
       <c r="AL420" t="n">
         <v>390062249443.2072</v>
@@ -67226,10 +66160,10 @@
         <v>43009</v>
       </c>
       <c r="B421" t="n">
-        <v>78444797749957.7</v>
+        <v>78444796184377.33</v>
       </c>
       <c r="C421" t="n">
-        <v>78444797749957.7</v>
+        <v>78444796184377.33</v>
       </c>
       <c r="D421" t="n">
         <v>24928523828908.29</v>
@@ -67328,10 +66262,10 @@
         <v>427842666666.6667</v>
       </c>
       <c r="AJ421" t="n">
-        <v>426691103087.9418</v>
+        <v>426689537507.5676</v>
       </c>
       <c r="AK421" t="n">
-        <v>426691103087.9418</v>
+        <v>426689537507.5676</v>
       </c>
       <c r="AL421" t="n">
         <v>389699129793.5103</v>
@@ -67942,10 +66876,10 @@
         <v>43132</v>
       </c>
       <c r="B425" t="n">
-        <v>83139723307260.8</v>
+        <v>83139721645036.59</v>
       </c>
       <c r="C425" t="n">
-        <v>83139723307260.8</v>
+        <v>83139721645036.59</v>
       </c>
       <c r="D425" t="n">
         <v>27324548428388.57</v>
@@ -68044,10 +66978,10 @@
         <v>430373600000</v>
       </c>
       <c r="AJ425" t="n">
-        <v>440464480874.3169</v>
+        <v>440462818650.1123</v>
       </c>
       <c r="AK425" t="n">
-        <v>440464480874.3169</v>
+        <v>440462818650.1123</v>
       </c>
       <c r="AL425" t="n">
         <v>389550902605.9106</v>
@@ -74028,10 +72962,10 @@
         <v>44166</v>
       </c>
       <c r="B459" t="n">
-        <v>102852052302728.7</v>
+        <v>102851952302728.7</v>
       </c>
       <c r="C459" t="n">
-        <v>102852052302728.7</v>
+        <v>102851952302728.7</v>
       </c>
       <c r="D459" t="n">
         <v>33514113409961.68</v>
@@ -74040,10 +72974,10 @@
         <v>33514113409961.68</v>
       </c>
       <c r="F459" t="n">
-        <v>19097400000000</v>
+        <v>19097300000000</v>
       </c>
       <c r="G459" t="n">
-        <v>19097400000000</v>
+        <v>19097300000000</v>
       </c>
       <c r="H459" t="n">
         <v>16793085258810</v>
@@ -74744,10 +73678,10 @@
         <v>44287</v>
       </c>
       <c r="B463" t="n">
-        <v>105451623562291.5</v>
+        <v>105451723562291.5</v>
       </c>
       <c r="C463" t="n">
-        <v>105451623562291.5</v>
+        <v>105451723562291.5</v>
       </c>
       <c r="D463" t="n">
         <v>34946811370307.43</v>
@@ -74756,10 +73690,10 @@
         <v>34946811370307.43</v>
       </c>
       <c r="F463" t="n">
-        <v>20125100000000</v>
+        <v>20125200000000</v>
       </c>
       <c r="G463" t="n">
-        <v>20125100000000</v>
+        <v>20125200000000</v>
       </c>
       <c r="H463" t="n">
         <v>16902520363210</v>
@@ -74923,10 +73857,10 @@
         <v>44317</v>
       </c>
       <c r="B464" t="n">
-        <v>107402524983824.1</v>
+        <v>107402624983824.1</v>
       </c>
       <c r="C464" t="n">
-        <v>107402524983824.1</v>
+        <v>107402624983824.1</v>
       </c>
       <c r="D464" t="n">
         <v>35722733124018.84</v>
@@ -74935,10 +73869,10 @@
         <v>35722733124018.84</v>
       </c>
       <c r="F464" t="n">
-        <v>20429400000000</v>
+        <v>20429500000000</v>
       </c>
       <c r="G464" t="n">
-        <v>20429400000000</v>
+        <v>20429500000000</v>
       </c>
       <c r="H464" t="n">
         <v>17306326683700</v>
@@ -75460,10 +74394,10 @@
         <v>44409</v>
       </c>
       <c r="B467" t="n">
-        <v>107355964527119.4</v>
+        <v>107355864527119.4</v>
       </c>
       <c r="C467" t="n">
-        <v>107355964527119.4</v>
+        <v>107355864527119.4</v>
       </c>
       <c r="D467" t="n">
         <v>35790293471194.62</v>
@@ -75472,10 +74406,10 @@
         <v>35790293471194.62</v>
       </c>
       <c r="F467" t="n">
-        <v>20835700000000</v>
+        <v>20835600000000</v>
       </c>
       <c r="G467" t="n">
-        <v>20835700000000</v>
+        <v>20835600000000</v>
       </c>
       <c r="H467" t="n">
         <v>17015448483800</v>
@@ -76355,10 +75289,10 @@
         <v>44562</v>
       </c>
       <c r="B472" t="n">
-        <v>110029039368399.2</v>
+        <v>110028739368399.2</v>
       </c>
       <c r="C472" t="n">
-        <v>110029039368399.2</v>
+        <v>110028739368399.2</v>
       </c>
       <c r="D472" t="n">
         <v>38220622592563.48</v>
@@ -76367,10 +75301,10 @@
         <v>38220622592563.48</v>
       </c>
       <c r="F472" t="n">
-        <v>21559000000000</v>
+        <v>21558700000000</v>
       </c>
       <c r="G472" t="n">
-        <v>21559000000000</v>
+        <v>21558700000000</v>
       </c>
       <c r="H472" t="n">
         <v>16643969692380</v>
@@ -76534,10 +75468,10 @@
         <v>44593</v>
       </c>
       <c r="B473" t="n">
-        <v>110570872386466.3</v>
+        <v>110570372386466.3</v>
       </c>
       <c r="C473" t="n">
-        <v>110570872386466.3</v>
+        <v>110570372386466.3</v>
       </c>
       <c r="D473" t="n">
         <v>38702189144632.55</v>
@@ -76546,10 +75480,10 @@
         <v>38702189144632.55</v>
       </c>
       <c r="F473" t="n">
-        <v>21615200000000</v>
+        <v>21614700000000</v>
       </c>
       <c r="G473" t="n">
-        <v>21615200000000</v>
+        <v>21614700000000</v>
       </c>
       <c r="H473" t="n">
         <v>16714681866750</v>
@@ -76713,10 +75647,10 @@
         <v>44621</v>
       </c>
       <c r="B474" t="n">
-        <v>111073996869907</v>
+        <v>111073796869907</v>
       </c>
       <c r="C474" t="n">
-        <v>111073996869907</v>
+        <v>111073796869907</v>
       </c>
       <c r="D474" t="n">
         <v>39383290760012.62</v>
@@ -76725,10 +75659,10 @@
         <v>39383290760012.62</v>
       </c>
       <c r="F474" t="n">
-        <v>21721100000000</v>
+        <v>21720900000000</v>
       </c>
       <c r="G474" t="n">
-        <v>21721100000000</v>
+        <v>21720900000000</v>
       </c>
       <c r="H474" t="n">
         <v>16572327213000</v>
@@ -76892,10 +75826,10 @@
         <v>44652</v>
       </c>
       <c r="B475" t="n">
-        <v>107774154538838.8</v>
+        <v>107774254538838.8</v>
       </c>
       <c r="C475" t="n">
-        <v>107774154538838.8</v>
+        <v>107774254538838.8</v>
       </c>
       <c r="D475" t="n">
         <v>37828554782082.32</v>
@@ -76904,10 +75838,10 @@
         <v>37828554782082.32</v>
       </c>
       <c r="F475" t="n">
-        <v>21722200000000</v>
+        <v>21722300000000</v>
       </c>
       <c r="G475" t="n">
-        <v>21722200000000</v>
+        <v>21722300000000</v>
       </c>
       <c r="H475" t="n">
         <v>15845369083390</v>
@@ -77429,10 +76363,10 @@
         <v>44743</v>
       </c>
       <c r="B478" t="n">
-        <v>107675140321672.5</v>
+        <v>107675240321672.5</v>
       </c>
       <c r="C478" t="n">
-        <v>107675140321672.5</v>
+        <v>107675240321672.5</v>
       </c>
       <c r="D478" t="n">
         <v>38231705544762.95</v>
@@ -77441,10 +76375,10 @@
         <v>38231705544762.95</v>
       </c>
       <c r="F478" t="n">
-        <v>21642900000000</v>
+        <v>21643000000000</v>
       </c>
       <c r="G478" t="n">
-        <v>21642900000000</v>
+        <v>21643000000000</v>
       </c>
       <c r="H478" t="n">
         <v>15587239217800</v>
@@ -77966,10 +76900,10 @@
         <v>44835</v>
       </c>
       <c r="B481" t="n">
-        <v>102834978283085.3</v>
+        <v>102835078283085.3</v>
       </c>
       <c r="C481" t="n">
-        <v>102834978283085.3</v>
+        <v>102835078283085.3</v>
       </c>
       <c r="D481" t="n">
         <v>35785997397794.98</v>
@@ -77978,10 +76912,10 @@
         <v>35785997397794.98</v>
       </c>
       <c r="F481" t="n">
-        <v>21471500000000</v>
+        <v>21471600000000</v>
       </c>
       <c r="G481" t="n">
-        <v>21471500000000</v>
+        <v>21471600000000</v>
       </c>
       <c r="H481" t="n">
         <v>15168960189040</v>
@@ -78324,10 +77258,10 @@
         <v>44896</v>
       </c>
       <c r="B483" t="n">
-        <v>108892048672097.2</v>
+        <v>108892148672097.2</v>
       </c>
       <c r="C483" t="n">
-        <v>108892048672097.2</v>
+        <v>108892148672097.2</v>
       </c>
       <c r="D483" t="n">
         <v>38629020472075.62</v>
@@ -78336,10 +77270,10 @@
         <v>38629020472075.62</v>
       </c>
       <c r="F483" t="n">
-        <v>21309200000000</v>
+        <v>21309300000000</v>
       </c>
       <c r="G483" t="n">
-        <v>21309200000000</v>
+        <v>21309300000000</v>
       </c>
       <c r="H483" t="n">
         <v>16315155560160</v>
@@ -78503,10 +77437,10 @@
         <v>44927</v>
       </c>
       <c r="B484" t="n">
-        <v>111661960711308.4</v>
+        <v>111662160711308.4</v>
       </c>
       <c r="C484" t="n">
-        <v>111661960711308.4</v>
+        <v>111662160711308.4</v>
       </c>
       <c r="D484" t="n">
         <v>40543008810246.54</v>
@@ -78515,10 +77449,10 @@
         <v>40543008810246.54</v>
       </c>
       <c r="F484" t="n">
-        <v>21222700000000</v>
+        <v>21222900000000</v>
       </c>
       <c r="G484" t="n">
-        <v>21222700000000</v>
+        <v>21222900000000</v>
       </c>
       <c r="H484" t="n">
         <v>16568231937360</v>
@@ -78682,10 +77616,10 @@
         <v>44958</v>
       </c>
       <c r="B485" t="n">
-        <v>109178640639765</v>
+        <v>109178740639765</v>
       </c>
       <c r="C485" t="n">
-        <v>109178640639765</v>
+        <v>109178740639765</v>
       </c>
       <c r="D485" t="n">
         <v>39746814772071.55</v>
@@ -78694,10 +77628,10 @@
         <v>39746814772071.55</v>
       </c>
       <c r="F485" t="n">
-        <v>21150500000000</v>
+        <v>21150600000000</v>
       </c>
       <c r="G485" t="n">
-        <v>21150500000000</v>
+        <v>21150600000000</v>
       </c>
       <c r="H485" t="n">
         <v>16084974214260</v>
@@ -78861,10 +77795,10 @@
         <v>44986</v>
       </c>
       <c r="B486" t="n">
-        <v>111114618036948.4</v>
+        <v>111114718036948.4</v>
       </c>
       <c r="C486" t="n">
-        <v>111114618036948.4</v>
+        <v>111114718036948.4</v>
       </c>
       <c r="D486" t="n">
         <v>40986243101163.52</v>
@@ -78873,10 +77807,10 @@
         <v>40986243101163.52</v>
       </c>
       <c r="F486" t="n">
-        <v>20902700000000</v>
+        <v>20902800000000</v>
       </c>
       <c r="G486" t="n">
-        <v>20902700000000</v>
+        <v>20902800000000</v>
       </c>
       <c r="H486" t="n">
         <v>16459538431600</v>
@@ -79040,10 +77974,10 @@
         <v>45017</v>
       </c>
       <c r="B487" t="n">
-        <v>110726351389489.3</v>
+        <v>110726451389489.3</v>
       </c>
       <c r="C487" t="n">
-        <v>110726351389489.3</v>
+        <v>110726451389489.3</v>
       </c>
       <c r="D487" t="n">
         <v>40640609217856.88</v>
@@ -79052,10 +77986,10 @@
         <v>40640609217856.88</v>
       </c>
       <c r="F487" t="n">
-        <v>20744800000000</v>
+        <v>20744900000000</v>
       </c>
       <c r="G487" t="n">
-        <v>20744800000000</v>
+        <v>20744900000000</v>
       </c>
       <c r="H487" t="n">
         <v>16673201062560</v>
@@ -79398,10 +78332,10 @@
         <v>45078</v>
       </c>
       <c r="B489" t="n">
-        <v>109286135779513</v>
+        <v>109286235779513</v>
       </c>
       <c r="C489" t="n">
-        <v>109286135779513</v>
+        <v>109286235779513</v>
       </c>
       <c r="D489" t="n">
         <v>39621902883700.41</v>
@@ -79410,10 +78344,10 @@
         <v>39621902883700.41</v>
       </c>
       <c r="F489" t="n">
-        <v>20820300000000</v>
+        <v>20820400000000</v>
       </c>
       <c r="G489" t="n">
-        <v>20820300000000</v>
+        <v>20820400000000</v>
       </c>
       <c r="H489" t="n">
         <v>16470802841210</v>
@@ -79577,10 +78511,10 @@
         <v>45108</v>
       </c>
       <c r="B490" t="n">
-        <v>110081864999427.9</v>
+        <v>110081964999427.9</v>
       </c>
       <c r="C490" t="n">
-        <v>110081864999427.9</v>
+        <v>110081964999427.9</v>
       </c>
       <c r="D490" t="n">
         <v>39958999775985.66</v>
@@ -79589,10 +78523,10 @@
         <v>39958999775985.66</v>
       </c>
       <c r="F490" t="n">
-        <v>20793200000000</v>
+        <v>20793300000000</v>
       </c>
       <c r="G490" t="n">
-        <v>20793200000000</v>
+        <v>20793300000000</v>
       </c>
       <c r="H490" t="n">
         <v>16547868249770</v>
@@ -80293,10 +79227,10 @@
         <v>45231</v>
       </c>
       <c r="B494" t="n">
-        <v>110352765587304</v>
+        <v>110352665587304</v>
       </c>
       <c r="C494" t="n">
-        <v>110352765587304</v>
+        <v>110352665587304</v>
       </c>
       <c r="D494" t="n">
         <v>40810233340340.55</v>
@@ -80305,10 +79239,10 @@
         <v>40810233340340.55</v>
       </c>
       <c r="F494" t="n">
-        <v>20705200000000</v>
+        <v>20705100000000</v>
       </c>
       <c r="G494" t="n">
-        <v>20705200000000</v>
+        <v>20705100000000</v>
       </c>
       <c r="H494" t="n">
         <v>16380645197860</v>
@@ -80651,10 +79585,10 @@
         <v>45292</v>
       </c>
       <c r="B496" t="n">
-        <v>111309614571597</v>
+        <v>111309814571597</v>
       </c>
       <c r="C496" t="n">
-        <v>111309614571597</v>
+        <v>111309814571597</v>
       </c>
       <c r="D496" t="n">
         <v>41528299938605.79</v>
@@ -80663,10 +79597,10 @@
         <v>41528299938605.79</v>
       </c>
       <c r="F496" t="n">
-        <v>20754200000000</v>
+        <v>20754400000000</v>
       </c>
       <c r="G496" t="n">
-        <v>20754200000000</v>
+        <v>20754400000000</v>
       </c>
       <c r="H496" t="n">
         <v>16303662838800</v>
@@ -81010,7 +79944,7 @@
       </c>
       <c r="B498" t="inlineStr"/>
       <c r="C498" t="n">
-        <v>111922580025761.6</v>
+        <v>111985007083089.5</v>
       </c>
       <c r="D498" t="n">
         <v>42216573866312.09</v>
@@ -81019,16 +79953,16 @@
         <v>42216573866312.09</v>
       </c>
       <c r="F498" t="n">
-        <v>20841500000000</v>
+        <v>20842100000000</v>
       </c>
       <c r="G498" t="n">
-        <v>20841500000000</v>
+        <v>20842100000000</v>
       </c>
       <c r="H498" t="n">
-        <v>16335393282560</v>
+        <v>16331514493260</v>
       </c>
       <c r="I498" t="n">
-        <v>16335393282560</v>
+        <v>16331514493260</v>
       </c>
       <c r="J498" t="n">
         <v>8223273811097.306</v>
@@ -81036,9 +79970,11 @@
       <c r="K498" t="n">
         <v>8223273811097.306</v>
       </c>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="n">
+        <v>3839673219945.2</v>
+      </c>
       <c r="M498" t="n">
-        <v>3799744984913.712</v>
+        <v>3839673219945.2</v>
       </c>
       <c r="N498" t="n">
         <v>2978571301121.875</v>
@@ -81053,10 +79989,10 @@
         <v>2196409326090.471</v>
       </c>
       <c r="R498" t="n">
-        <v>1957526909778.851</v>
+        <v>1956794311435.841</v>
       </c>
       <c r="S498" t="n">
-        <v>1957526909778.851</v>
+        <v>1956794311435.841</v>
       </c>
       <c r="T498" t="n">
         <v>1949935095024.891</v>
@@ -81092,9 +80028,11 @@
       <c r="AE498" t="n">
         <v>742206503479.7217</v>
       </c>
-      <c r="AF498" t="inlineStr"/>
+      <c r="AF498" t="n">
+        <v>840513174119.6997</v>
+      </c>
       <c r="AG498" t="n">
-        <v>814186656188.7894</v>
+        <v>840513174119.6997</v>
       </c>
       <c r="AH498" t="n">
         <v>661042844947.1774</v>
@@ -81133,10 +80071,10 @@
         <v>288500305267.2476</v>
       </c>
       <c r="AT498" t="n">
-        <v>298070446524.2166</v>
+        <v>298254138532.7635</v>
       </c>
       <c r="AU498" t="n">
-        <v>298070446524.2166</v>
+        <v>298254138532.7635</v>
       </c>
       <c r="AV498" t="n">
         <v>246040308593.9836</v>
@@ -81181,45 +80119,55 @@
       </c>
       <c r="B499" t="inlineStr"/>
       <c r="C499" t="n">
-        <v>111052900123894.3</v>
+        <v>110776055771252</v>
       </c>
       <c r="D499" t="n">
-        <v>41586262915078.18</v>
+        <v>41603707387148.46</v>
       </c>
       <c r="E499" t="n">
-        <v>41586262915078.18</v>
+        <v>41603707387148.46</v>
       </c>
       <c r="F499" t="n">
-        <v>20867300000000</v>
+        <v>20870200000000</v>
       </c>
       <c r="G499" t="n">
-        <v>20867300000000</v>
-      </c>
-      <c r="H499" t="inlineStr"/>
+        <v>20870200000000</v>
+      </c>
+      <c r="H499" t="n">
+        <v>16152660843720</v>
+      </c>
       <c r="I499" t="n">
-        <v>16335393282560</v>
+        <v>16152660843720</v>
       </c>
       <c r="J499" t="n">
-        <v>7985940084543.282</v>
+        <v>7985417234407.976</v>
       </c>
       <c r="K499" t="n">
-        <v>7985940084543.282</v>
-      </c>
-      <c r="L499" t="inlineStr"/>
+        <v>7985417234407.976</v>
+      </c>
+      <c r="L499" t="n">
+        <v>3797547108512.021</v>
+      </c>
       <c r="M499" t="n">
-        <v>3799744984913.712</v>
-      </c>
-      <c r="N499" t="inlineStr"/>
+        <v>3797547108512.021</v>
+      </c>
+      <c r="N499" t="n">
+        <v>2881460016476.131</v>
+      </c>
       <c r="O499" t="n">
-        <v>2978571301121.875</v>
-      </c>
-      <c r="P499" t="inlineStr"/>
+        <v>2881460016476.131</v>
+      </c>
+      <c r="P499" t="n">
+        <v>2243428504968.825</v>
+      </c>
       <c r="Q499" t="n">
-        <v>2196409326090.471</v>
-      </c>
-      <c r="R499" t="inlineStr"/>
+        <v>2243428504968.825</v>
+      </c>
+      <c r="R499" t="n">
+        <v>1953477221333.091</v>
+      </c>
       <c r="S499" t="n">
-        <v>1957526909778.851</v>
+        <v>1953477221333.091</v>
       </c>
       <c r="T499" t="n">
         <v>1919327035151.218</v>
@@ -81227,9 +80175,11 @@
       <c r="U499" t="n">
         <v>1919327035151.218</v>
       </c>
-      <c r="V499" t="inlineStr"/>
+      <c r="V499" t="n">
+        <v>1835920568446.57</v>
+      </c>
       <c r="W499" t="n">
-        <v>1862318722803.803</v>
+        <v>1835920568446.57</v>
       </c>
       <c r="X499" t="n">
         <v>1103240254786.339</v>
@@ -81241,17 +80191,21 @@
       <c r="AA499" t="n">
         <v>1013250726599.073</v>
       </c>
-      <c r="AB499" t="inlineStr"/>
+      <c r="AB499" t="n">
+        <v>1161343576709.797</v>
+      </c>
       <c r="AC499" t="n">
-        <v>1183709067503.42</v>
+        <v>1161343576709.797</v>
       </c>
       <c r="AD499" t="inlineStr"/>
       <c r="AE499" t="n">
         <v>742206503479.7217</v>
       </c>
-      <c r="AF499" t="inlineStr"/>
+      <c r="AF499" t="n">
+        <v>815280149738.8615</v>
+      </c>
       <c r="AG499" t="n">
-        <v>814186656188.7894</v>
+        <v>815280149738.8615</v>
       </c>
       <c r="AH499" t="n">
         <v>653413632119.5145</v>
@@ -81285,13 +80239,17 @@
       <c r="AS499" t="n">
         <v>288500305267.2476</v>
       </c>
-      <c r="AT499" t="inlineStr"/>
+      <c r="AT499" t="n">
+        <v>291196646854.9645</v>
+      </c>
       <c r="AU499" t="n">
-        <v>298070446524.2166</v>
-      </c>
-      <c r="AV499" t="inlineStr"/>
+        <v>291196646854.9645</v>
+      </c>
+      <c r="AV499" t="n">
+        <v>242990395380.3547</v>
+      </c>
       <c r="AW499" t="n">
-        <v>246040308593.9836</v>
+        <v>242990395380.3547</v>
       </c>
       <c r="AX499" t="inlineStr"/>
       <c r="AY499" t="n">
@@ -81310,15 +80268,158 @@
         <v>208200244732.0392</v>
       </c>
       <c r="BD499" t="n">
-        <v>196428582288.2491</v>
+        <v>196428581649.4445</v>
       </c>
       <c r="BE499" t="n">
-        <v>196428582288.2491</v>
+        <v>196428581649.4445</v>
       </c>
       <c r="BF499" t="n">
         <v>130408633560.5323</v>
       </c>
       <c r="BG499" t="n">
+        <v>130408633560.5323</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="n">
+        <v>111423607126115</v>
+      </c>
+      <c r="D500" t="n">
+        <v>41686323712194.45</v>
+      </c>
+      <c r="E500" t="n">
+        <v>41686323712194.45</v>
+      </c>
+      <c r="F500" t="n">
+        <v>20963400000000</v>
+      </c>
+      <c r="G500" t="n">
+        <v>20963400000000</v>
+      </c>
+      <c r="H500" t="n">
+        <v>16493552156500</v>
+      </c>
+      <c r="I500" t="n">
+        <v>16493552156500</v>
+      </c>
+      <c r="J500" t="n">
+        <v>8007487566302.453</v>
+      </c>
+      <c r="K500" t="n">
+        <v>8007487566302.453</v>
+      </c>
+      <c r="L500" t="inlineStr"/>
+      <c r="M500" t="n">
+        <v>3797547108512.021</v>
+      </c>
+      <c r="N500" t="inlineStr"/>
+      <c r="O500" t="n">
+        <v>2881460016476.131</v>
+      </c>
+      <c r="P500" t="inlineStr"/>
+      <c r="Q500" t="n">
+        <v>2243428504968.825</v>
+      </c>
+      <c r="R500" t="n">
+        <v>2008984426993.212</v>
+      </c>
+      <c r="S500" t="n">
+        <v>2008984426993.212</v>
+      </c>
+      <c r="T500" t="n">
+        <v>1934787776100.552</v>
+      </c>
+      <c r="U500" t="n">
+        <v>1934787776100.552</v>
+      </c>
+      <c r="V500" t="inlineStr"/>
+      <c r="W500" t="n">
+        <v>1835920568446.57</v>
+      </c>
+      <c r="X500" t="n">
+        <v>1134301902950.519</v>
+      </c>
+      <c r="Y500" t="n">
+        <v>1134301902950.519</v>
+      </c>
+      <c r="Z500" t="inlineStr"/>
+      <c r="AA500" t="n">
+        <v>1013250726599.073</v>
+      </c>
+      <c r="AB500" t="n">
+        <v>1164026117624.631</v>
+      </c>
+      <c r="AC500" t="n">
+        <v>1164026117624.631</v>
+      </c>
+      <c r="AD500" t="inlineStr"/>
+      <c r="AE500" t="n">
+        <v>742206503479.7217</v>
+      </c>
+      <c r="AF500" t="inlineStr"/>
+      <c r="AG500" t="n">
+        <v>815280149738.8615</v>
+      </c>
+      <c r="AH500" t="inlineStr"/>
+      <c r="AI500" t="n">
+        <v>653413632119.5145</v>
+      </c>
+      <c r="AJ500" t="inlineStr"/>
+      <c r="AK500" t="n">
+        <v>585659328587.7494</v>
+      </c>
+      <c r="AL500" t="n">
+        <v>551951489780.8422</v>
+      </c>
+      <c r="AM500" t="n">
+        <v>551951489780.8422</v>
+      </c>
+      <c r="AN500" t="inlineStr"/>
+      <c r="AO500" t="n">
+        <v>506087903563.9413</v>
+      </c>
+      <c r="AP500" t="inlineStr"/>
+      <c r="AQ500" t="n">
+        <v>571170772253.287</v>
+      </c>
+      <c r="AR500" t="inlineStr"/>
+      <c r="AS500" t="n">
+        <v>288500305267.2476</v>
+      </c>
+      <c r="AT500" t="inlineStr"/>
+      <c r="AU500" t="n">
+        <v>291196646854.9645</v>
+      </c>
+      <c r="AV500" t="inlineStr"/>
+      <c r="AW500" t="n">
+        <v>242990395380.3547</v>
+      </c>
+      <c r="AX500" t="inlineStr"/>
+      <c r="AY500" t="n">
+        <v>248021875895.6929</v>
+      </c>
+      <c r="AZ500" t="n">
+        <v>224278211580.852</v>
+      </c>
+      <c r="BA500" t="n">
+        <v>224278211580.852</v>
+      </c>
+      <c r="BB500" t="inlineStr"/>
+      <c r="BC500" t="n">
+        <v>208200244732.0392</v>
+      </c>
+      <c r="BD500" t="n">
+        <v>199770449651.021</v>
+      </c>
+      <c r="BE500" t="n">
+        <v>199770449651.021</v>
+      </c>
+      <c r="BF500" t="inlineStr"/>
+      <c r="BG500" t="n">
         <v>130408633560.5323</v>
       </c>
     </row>

--- a/Global_M2/M2_USD_Tables/Long28_M2_USD.xlsx
+++ b/Global_M2/M2_USD_Tables/Long28_M2_USD.xlsx
@@ -80070,10 +80070,10 @@
         <v>45444</v>
       </c>
       <c r="B497" t="n">
-        <v>111740279000152.7</v>
+        <v>111740302159689.5</v>
       </c>
       <c r="C497" t="n">
-        <v>111740279000152.7</v>
+        <v>111740302159689.5</v>
       </c>
       <c r="D497" t="n">
         <v>41974506997674.32</v>
@@ -80154,10 +80154,10 @@
         <v>1119977477880.061</v>
       </c>
       <c r="AD497" t="n">
-        <v>781639287214.2557</v>
+        <v>781662446751.0651</v>
       </c>
       <c r="AE497" t="n">
-        <v>781639287214.2557</v>
+        <v>781662446751.0651</v>
       </c>
       <c r="AF497" t="n">
         <v>781011336120.2185</v>
@@ -80250,7 +80250,7 @@
       </c>
       <c r="B498" t="inlineStr"/>
       <c r="C498" t="n">
-        <v>112702202264307</v>
+        <v>112677390154995.7</v>
       </c>
       <c r="D498" t="n">
         <v>42016135645813.71</v>
@@ -80328,9 +80328,11 @@
       <c r="AC498" t="n">
         <v>1111450079519.35</v>
       </c>
-      <c r="AD498" t="inlineStr"/>
+      <c r="AD498" t="n">
+        <v>756531190248.5659</v>
+      </c>
       <c r="AE498" t="n">
-        <v>781639287214.2557</v>
+        <v>756531190248.5659</v>
       </c>
       <c r="AF498" t="n">
         <v>772780720309.8477</v>
@@ -80375,10 +80377,10 @@
         <v>295863472882.6546</v>
       </c>
       <c r="AT498" t="n">
-        <v>292848508230.4527</v>
+        <v>293144495884.7737</v>
       </c>
       <c r="AU498" t="n">
-        <v>292848508230.4527</v>
+        <v>293144495884.7737</v>
       </c>
       <c r="AV498" t="n">
         <v>247568870113.6431</v>
@@ -80423,7 +80425,7 @@
       </c>
       <c r="B499" t="inlineStr"/>
       <c r="C499" t="n">
-        <v>114739614783141.4</v>
+        <v>114723928041519.4</v>
       </c>
       <c r="D499" t="n">
         <v>43028422314690.73</v>
@@ -80497,7 +80499,7 @@
       </c>
       <c r="AD499" t="inlineStr"/>
       <c r="AE499" t="n">
-        <v>781639287214.2557</v>
+        <v>756531190248.5659</v>
       </c>
       <c r="AF499" t="inlineStr"/>
       <c r="AG499" t="n">
@@ -80539,9 +80541,11 @@
       <c r="AS499" t="n">
         <v>303076214893.5889</v>
       </c>
-      <c r="AT499" t="inlineStr"/>
+      <c r="AT499" t="n">
+        <v>302269863574.1094</v>
+      </c>
       <c r="AU499" t="n">
-        <v>292848508230.4527</v>
+        <v>302269863574.1094</v>
       </c>
       <c r="AV499" t="n">
         <v>259391250000</v>
